--- a/in/2cam_sweep1kev.xlsx
+++ b/in/2cam_sweep1kev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -19,6 +19,11 @@
     <definedName function="false" hidden="false" localSheetId="1" name="_xlnm_Sheet_Title" vbProcedure="false">"Sheet1"</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -87,10 +92,8 @@
       <text>
         <r>
           <rPr>
-            <b val="true"/>
-            <sz val="8"/>
-            <color rgb="FF000000"/>
-            <rFont val="Tahoma"/>
+            <sz val="10"/>
+            <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
           </rPr>
@@ -103,7 +106,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -113,7 +115,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0">
+    <comment ref="F11" authorId="0">
       <text>
         <r>
           <rPr>
@@ -141,7 +143,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -156,7 +157,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -173,7 +173,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -187,7 +186,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -224,7 +222,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -241,7 +238,6 @@
         <r>
           <rPr>
             <sz val="10"/>
-            <color rgb="FF000000"/>
             <rFont val="Arial"/>
             <family val="2"/>
             <charset val="1"/>
@@ -257,7 +253,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
   <si>
     <t>Sim</t>
   </si>
@@ -271,12 +267,6 @@
     <t>Recon</t>
   </si>
   <si>
-    <t>ART</t>
-  </si>
-  <si>
-    <t>Obs</t>
-  </si>
-  <si>
     <t>Transcar</t>
   </si>
   <si>
@@ -517,7 +507,7 @@
     <t>timeShiftSec</t>
   </si>
   <si>
-    <t>frameRateHz</t>
+    <t>kineticsec</t>
   </si>
   <si>
     <t>rotCCW</t>
@@ -665,13 +655,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="6">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="GENERAL"/>
     <numFmt numFmtId="165" formatCode="@"/>
-    <numFmt numFmtId="166" formatCode="0.00"/>
-    <numFmt numFmtId="167" formatCode="0.00E+000"/>
-    <numFmt numFmtId="168" formatCode="0"/>
-    <numFmt numFmtId="169" formatCode="0.00E+00"/>
+    <numFmt numFmtId="166" formatCode="0.00E+000"/>
+    <numFmt numFmtId="167" formatCode="0"/>
+    <numFmt numFmtId="168" formatCode="0.00E+00"/>
   </numFmts>
   <fonts count="19">
     <font>
@@ -830,7 +819,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="15">
+  <borders count="14">
     <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
@@ -909,13 +898,6 @@
       <diagonal/>
     </border>
     <border diagonalUp="false" diagonalDown="false">
-      <left style="hair"/>
-      <right style="hair"/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right style="thin"/>
       <top style="thin"/>
@@ -962,7 +944,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="59">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -971,12 +953,12 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
@@ -1079,14 +1061,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1123,18 +1097,6 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1151,15 +1113,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1187,7 +1149,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="14" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="13" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1203,19 +1165,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="166" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="169" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="168" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1297,239 +1259,213 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H74"/>
+  <dimension ref="A1:F65"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A70" activeCellId="0" sqref="A70"/>
+      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.9744897959184"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.1071428571429"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.5561224489796"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.13775510204082"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.70408163265306"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="9.69897959183673"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="2" width="9.98979591836735"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="28.5357142857143"/>
-    <col collapsed="false" hidden="false" max="1025" min="9" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6377551020408"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2142857142857"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B1" s="3" t="s">
+    <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="2" t="s">
+    </row>
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="5" t="s">
-        <v>8</v>
-      </c>
       <c r="C2" s="5"/>
-      <c r="G2" s="0"/>
-      <c r="H2" s="0"/>
+      <c r="F2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="7"/>
-      <c r="G3" s="0"/>
-      <c r="H3" s="0"/>
+      <c r="F3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B4" s="0"/>
       <c r="C4" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G4" s="0"/>
-      <c r="H4" s="0"/>
-    </row>
-    <row r="5" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>9</v>
+      </c>
+      <c r="F4" s="0"/>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="0"/>
       <c r="C5" s="8"/>
-      <c r="G5" s="0"/>
-      <c r="H5" s="0"/>
+      <c r="F5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="16.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C6" s="7"/>
-      <c r="G6" s="0"/>
-      <c r="H6" s="0"/>
+      <c r="F6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="7"/>
-      <c r="G7" s="0"/>
-      <c r="H7" s="0"/>
+      <c r="F7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B8" s="10" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C8" s="7"/>
-      <c r="G8" s="0"/>
-      <c r="H8" s="0"/>
+      <c r="F8" s="0"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C9" s="13"/>
-      <c r="G9" s="0"/>
-      <c r="H9" s="0"/>
+      <c r="F9" s="0"/>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B10" s="0"/>
       <c r="C10" s="13"/>
-      <c r="G10" s="0"/>
-      <c r="H10" s="14" t="s">
-        <v>22</v>
+      <c r="F10" s="14" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="5"/>
-      <c r="G11" s="0"/>
-      <c r="H11" s="14" t="s">
-        <v>24</v>
+      <c r="F11" s="14" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B12" s="0" t="n">
         <v>10</v>
       </c>
       <c r="C12" s="5"/>
-      <c r="G12" s="0"/>
-      <c r="H12" s="14"/>
+      <c r="F12" s="14"/>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B13" s="0"/>
       <c r="C13" s="5"/>
-      <c r="G13" s="0"/>
-      <c r="H13" s="15" t="s">
-        <v>27</v>
+      <c r="F13" s="15" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B14" s="1" t="n">
         <v>0</v>
       </c>
       <c r="C14" s="7"/>
-      <c r="G14" s="0"/>
-      <c r="H14" s="0"/>
+      <c r="F14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="4" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B15" s="0"/>
       <c r="C15" s="7"/>
-      <c r="G15" s="0"/>
-      <c r="H15" s="0"/>
+      <c r="F15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="4" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B16" s="0"/>
       <c r="C16" s="7"/>
-      <c r="G16" s="0"/>
-      <c r="H16" s="16" t="s">
-        <v>31</v>
+      <c r="F16" s="16" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="4" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B17" s="0"/>
       <c r="C17" s="7"/>
-      <c r="G17" s="0"/>
-      <c r="H17" s="16" t="s">
-        <v>33</v>
+      <c r="F17" s="16" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="7"/>
-      <c r="G18" s="0"/>
-      <c r="H18" s="16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F18" s="16" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="17" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B19" s="18"/>
       <c r="C19" s="7"/>
-      <c r="G19" s="0"/>
-      <c r="H19" s="1" t="n">
+      <c r="F19" s="1" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1537,329 +1473,291 @@
       <c r="A20" s="17"/>
       <c r="B20" s="18"/>
       <c r="C20" s="7"/>
-      <c r="G20" s="0"/>
-      <c r="H20" s="0"/>
-    </row>
-    <row r="21" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F20" s="0"/>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="17" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B21" s="19" t="n">
         <v>200</v>
       </c>
       <c r="C21" s="7"/>
-      <c r="G21" s="0"/>
-      <c r="H21" s="0"/>
-    </row>
-    <row r="22" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F21" s="0"/>
+    </row>
+    <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="17" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B22" s="19" t="n">
         <v>1200</v>
       </c>
       <c r="C22" s="7"/>
-      <c r="G22" s="0"/>
-      <c r="H22" s="0"/>
+      <c r="F22" s="0"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
-      <c r="G23" s="0"/>
-      <c r="H23" s="0"/>
+      <c r="F23" s="0"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="21"/>
       <c r="C24" s="7"/>
-      <c r="G24" s="0"/>
-      <c r="H24" s="1" t="s">
-        <v>40</v>
+      <c r="F24" s="1" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="4" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B25" s="22"/>
       <c r="C25" s="7"/>
-      <c r="G25" s="0"/>
-      <c r="H25" s="0" t="n">
+      <c r="F25" s="0" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B26" s="22"/>
       <c r="C26" s="7"/>
-      <c r="G26" s="0"/>
-      <c r="H26" s="0" t="n">
+      <c r="F26" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="27" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="27" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B27" s="22"/>
       <c r="C27" s="7"/>
-      <c r="G27" s="0"/>
-      <c r="H27" s="0" t="n">
+      <c r="F27" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="28" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="28" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B28" s="22"/>
       <c r="C28" s="7"/>
-      <c r="G28" s="0"/>
-      <c r="H28" s="0" t="n">
+      <c r="F28" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="29" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B29" s="22"/>
       <c r="C29" s="7"/>
-      <c r="G29" s="0"/>
-      <c r="H29" s="0" t="n">
+      <c r="F29" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="30" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="30" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B30" s="22"/>
       <c r="C30" s="7"/>
-      <c r="G30" s="0"/>
-      <c r="H30" s="0" t="n">
+      <c r="F30" s="0" t="n">
         <v>1</v>
       </c>
     </row>
-    <row r="31" customFormat="false" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="31" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4"/>
       <c r="B31" s="22"/>
       <c r="C31" s="7"/>
-      <c r="G31" s="0"/>
-      <c r="H31" s="0"/>
+      <c r="F31" s="0"/>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B32" s="22"/>
       <c r="C32" s="7"/>
-      <c r="G32" s="0"/>
-      <c r="H32" s="23" t="n">
+      <c r="F32" s="23" t="n">
         <v>0</v>
       </c>
     </row>
-    <row r="33" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B33" s="5"/>
       <c r="C33" s="5"/>
-      <c r="G33" s="0"/>
-      <c r="H33" s="24"/>
+      <c r="F33" s="24"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="4"/>
       <c r="B34" s="5"/>
       <c r="C34" s="5"/>
-      <c r="G34" s="0"/>
-      <c r="H34" s="0"/>
+      <c r="F34" s="0"/>
     </row>
     <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B35" s="26" t="n">
         <v>0</v>
       </c>
       <c r="C35" s="26"/>
-      <c r="G35" s="0"/>
-      <c r="H35" s="0"/>
+      <c r="F35" s="0"/>
     </row>
     <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="25" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B36" s="22" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="22"/>
-      <c r="G36" s="0"/>
-      <c r="H36" s="0"/>
+      <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="4"/>
       <c r="B37" s="5"/>
       <c r="C37" s="5"/>
-      <c r="G37" s="0"/>
-      <c r="H37" s="0"/>
+      <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="0"/>
-      <c r="G38" s="28" t="s">
-        <v>52</v>
-      </c>
-      <c r="H38" s="0"/>
+      <c r="C38" s="28" t="s">
+        <v>50</v>
+      </c>
+      <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
-      <c r="G39" s="0"/>
-      <c r="H39" s="0"/>
-    </row>
-    <row r="40" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F39" s="0"/>
+    </row>
+    <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B40" s="0"/>
       <c r="C40" s="0"/>
-      <c r="G40" s="29"/>
-      <c r="H40" s="0"/>
-    </row>
-    <row r="41" customFormat="false" ht="14.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F40" s="0"/>
+    </row>
+    <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
-      <c r="G41" s="30"/>
-      <c r="H41" s="0"/>
+      <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="4"/>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
-      <c r="G42" s="30"/>
-      <c r="H42" s="0"/>
+      <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="25" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B43" s="0"/>
       <c r="C43" s="13"/>
-      <c r="G43" s="0"/>
-      <c r="H43" s="15" t="n">
+      <c r="F43" s="15" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="31" t="s">
-        <v>56</v>
+      <c r="A44" s="29" t="s">
+        <v>54</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="32" t="n">
+      <c r="D44" s="30" t="n">
         <v>0.05</v>
       </c>
-      <c r="E44" s="33"/>
-      <c r="F44" s="5"/>
-      <c r="G44" s="0"/>
-      <c r="H44" s="0"/>
+      <c r="E44" s="31"/>
+      <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="31" t="s">
-        <v>57</v>
+      <c r="A45" s="29" t="s">
+        <v>55</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="34"/>
-      <c r="E45" s="35"/>
-      <c r="F45" s="5"/>
-      <c r="G45" s="0"/>
-      <c r="H45" s="0"/>
+      <c r="D45" s="32"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="31" t="s">
-        <v>58</v>
+      <c r="A46" s="29" t="s">
+        <v>56</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="34" t="n">
+      <c r="D46" s="32" t="n">
         <v>-10</v>
       </c>
-      <c r="E46" s="35"/>
-      <c r="F46" s="5"/>
-      <c r="G46" s="0"/>
-      <c r="H46" s="0"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="31" t="s">
-        <v>59</v>
+      <c r="A47" s="29" t="s">
+        <v>57</v>
       </c>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="34" t="n">
+      <c r="D47" s="32" t="n">
         <v>10</v>
       </c>
-      <c r="E47" s="35"/>
-      <c r="F47" s="13"/>
-      <c r="G47" s="0"/>
-      <c r="H47" s="0"/>
-    </row>
-    <row r="48" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="31" t="s">
-        <v>60</v>
+      <c r="E47" s="33"/>
+      <c r="F47" s="0"/>
+    </row>
+    <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="29" t="s">
+        <v>58</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="34" t="n">
+      <c r="D48" s="32" t="n">
         <v>89</v>
       </c>
-      <c r="E48" s="35"/>
-      <c r="F48" s="13"/>
-      <c r="G48" s="0"/>
-      <c r="H48" s="0"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="0"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="31" t="s">
-        <v>61</v>
+      <c r="A49" s="29" t="s">
+        <v>59</v>
       </c>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="36" t="n">
+      <c r="D49" s="34" t="n">
         <v>1000</v>
       </c>
-      <c r="E49" s="37"/>
-      <c r="F49" s="13"/>
-      <c r="G49" s="0"/>
-      <c r="H49" s="0"/>
-    </row>
-    <row r="50" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E49" s="35"/>
+      <c r="F49" s="0"/>
+    </row>
+    <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="4"/>
       <c r="B50" s="0"/>
       <c r="C50" s="0"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
-      <c r="F50" s="13"/>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
       <c r="E51" s="15"/>
-      <c r="F51" s="13"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A52" s="4"/>
@@ -1867,22 +1765,20 @@
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
-      <c r="F52" s="13"/>
-    </row>
-    <row r="53" customFormat="false" ht="13.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A53" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B53" s="18"/>
       <c r="C53" s="7"/>
       <c r="E53" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F53" s="13"/>
-    </row>
-    <row r="54" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
@@ -1890,11 +1786,10 @@
       <c r="E54" s="5" t="n">
         <v>20</v>
       </c>
-      <c r="F54" s="13"/>
-    </row>
-    <row r="55" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
@@ -1902,85 +1797,73 @@
       <c r="E55" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="F55" s="13"/>
-    </row>
-    <row r="56" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="38"/>
-      <c r="B56" s="39"/>
-      <c r="C56" s="39"/>
+    </row>
+    <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A56" s="36"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="37"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
-      <c r="F57" s="40"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
-      <c r="F58" s="41"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A59" s="4" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
-      <c r="F59" s="42"/>
     </row>
     <row r="60" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A60" s="4" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
-      <c r="F60" s="41"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A61" s="4" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
-      <c r="F61" s="28"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A62" s="4"/>
       <c r="B62" s="0"/>
       <c r="C62" s="0"/>
-      <c r="F62" s="5"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    </row>
+    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B63" s="0"/>
       <c r="C63" s="0"/>
-      <c r="E63" s="43"/>
-      <c r="F63" s="5"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="E63" s="38"/>
+    </row>
+    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B64" s="0"/>
       <c r="C64" s="0"/>
     </row>
     <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="31" t="s">
-        <v>73</v>
+      <c r="A65" s="29" t="s">
+        <v>71</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C65" s="5"/>
     </row>
-    <row r="66" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="69" customFormat="false" ht="12.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="70" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="74" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
@@ -2004,24 +1887,23 @@
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="C6" activeCellId="0" sqref="C6"/>
+      <selection pane="bottomLeft" activeCell="C13" activeCellId="0" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="44" width="21.4030612244898"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="44" width="22.9744897959184"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="44" width="23.0459183673469"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="44" width="10.4132653061225"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.4132653061225"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.1938775510204"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="22.6785714285714"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.2602040816327"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="45" t="n">
+      <c r="B1" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="45" t="n">
+      <c r="C1" s="40" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2275,7 +2157,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2533,13 +2415,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="31" t="s">
-        <v>76</v>
-      </c>
-      <c r="B3" s="46" t="n">
+      <c r="A3" s="29" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="46" t="n">
+      <c r="C3" s="41" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2792,13 +2674,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="31" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="46" t="n">
+      <c r="A4" s="29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="41" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="46" t="n">
+      <c r="C4" s="41" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -3051,8 +2933,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="31" t="s">
-        <v>78</v>
+      <c r="A5" s="29" t="s">
+        <v>76</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3310,13 +3192,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="47" t="s">
-        <v>79</v>
-      </c>
-      <c r="B6" s="46" t="n">
+      <c r="A6" s="42" t="s">
+        <v>77</v>
+      </c>
+      <c r="B6" s="41" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="46" t="n">
+      <c r="C6" s="41" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
@@ -3569,13 +3451,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="48" t="s">
-        <v>80</v>
-      </c>
-      <c r="B7" s="46" t="n">
+      <c r="A7" s="43" t="s">
+        <v>78</v>
+      </c>
+      <c r="B7" s="41" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="46" t="n">
+      <c r="C7" s="41" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3828,8 +3710,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="31" t="s">
-        <v>81</v>
+      <c r="A8" s="29" t="s">
+        <v>79</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -4088,7 +3970,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>250</v>
@@ -4347,10 +4229,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B10" s="49"/>
-      <c r="C10" s="49"/>
+        <v>81</v>
+      </c>
+      <c r="B10" s="44"/>
+      <c r="C10" s="44"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4601,8 +4483,8 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="38" t="s">
-        <v>84</v>
+      <c r="A11" s="36" t="s">
+        <v>82</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4857,9 +4739,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="B12" s="50"/>
+        <v>83</v>
+      </c>
+      <c r="B12" s="45"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -5112,13 +4994,13 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>50</v>
+        <v>0.02</v>
       </c>
       <c r="D13" s="0"/>
       <c r="E13" s="0"/>
@@ -5370,13 +5252,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="51" t="s">
-        <v>87</v>
-      </c>
-      <c r="B14" s="52" t="n">
+      <c r="A14" s="46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B14" s="47" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="52" t="n">
+      <c r="C14" s="47" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5629,11 +5511,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="53" t="s">
-        <v>88</v>
+      <c r="A15" s="48" t="s">
+        <v>86</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="54"/>
+      <c r="C15" s="49"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5884,11 +5766,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="53" t="s">
-        <v>89</v>
+      <c r="A16" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="54"/>
+      <c r="C16" s="49"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6139,11 +6021,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="55" t="s">
-        <v>90</v>
-      </c>
-      <c r="B17" s="56"/>
-      <c r="C17" s="57"/>
+      <c r="A17" s="50" t="s">
+        <v>88</v>
+      </c>
+      <c r="B17" s="51"/>
+      <c r="C17" s="52"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6395,7 +6277,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6651,7 +6533,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="58"/>
+      <c r="C19" s="53"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6903,10 +6785,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="50"/>
-      <c r="C20" s="58"/>
+        <v>90</v>
+      </c>
+      <c r="B20" s="45"/>
+      <c r="C20" s="53"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7158,10 +7040,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="50"/>
-      <c r="C21" s="58"/>
+        <v>91</v>
+      </c>
+      <c r="B21" s="45"/>
+      <c r="C21" s="53"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7413,7 +7295,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7668,7 +7550,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7923,7 +7805,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8437,7 +8319,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8446,7 +8328,7 @@
         <v>15</v>
       </c>
       <c r="D26" s="0"/>
-      <c r="E26" s="2"/>
+      <c r="E26" s="3"/>
       <c r="F26" s="1"/>
       <c r="G26" s="0"/>
       <c r="H26" s="0"/>
@@ -8696,7 +8578,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8705,7 +8587,7 @@
         <v>2</v>
       </c>
       <c r="D27" s="0"/>
-      <c r="E27" s="2"/>
+      <c r="E27" s="3"/>
       <c r="F27" s="1"/>
       <c r="G27" s="0"/>
       <c r="H27" s="0"/>
@@ -8960,7 +8842,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8971,7 +8853,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8982,7 +8864,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8993,7 +8875,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -9004,7 +8886,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -9016,23 +8898,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="59" t="n">
+        <v>102</v>
+      </c>
+      <c r="B35" s="54" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="59" t="n">
+      <c r="C35" s="54" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>105</v>
-      </c>
-      <c r="B36" s="59" t="n">
+        <v>103</v>
+      </c>
+      <c r="B36" s="54" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="59" t="n">
+      <c r="C36" s="54" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -9043,7 +8925,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -9054,7 +8936,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -9065,24 +8947,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>110</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9091,37 +8973,37 @@
       <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="44" t="s">
-        <v>113</v>
-      </c>
-      <c r="B43" s="60" t="n">
+      <c r="A43" s="39" t="s">
+        <v>111</v>
+      </c>
+      <c r="B43" s="55" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="60" t="n">
+      <c r="C43" s="55" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="44" t="s">
-        <v>114</v>
-      </c>
-      <c r="B44" s="44" t="n">
+      <c r="A44" s="39" t="s">
+        <v>112</v>
+      </c>
+      <c r="B44" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="44" t="n">
+      <c r="C44" s="39" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="44" t="s">
-        <v>115</v>
-      </c>
-      <c r="B45" s="44" t="n">
+      <c r="A45" s="39" t="s">
+        <v>113</v>
+      </c>
+      <c r="B45" s="39" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="44" t="n">
+      <c r="C45" s="39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9145,7 +9027,7 @@
   </sheetPr>
   <dimension ref="A1:JR18"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="AB1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
       <selection pane="bottomLeft" activeCell="AN20" activeCellId="0" sqref="AN20"/>
@@ -9153,508 +9035,508 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.1224489795918"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.5561224489796"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="61"/>
-      <c r="B1" s="62" t="n">
+      <c r="A1" s="56"/>
+      <c r="B1" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="62" t="n">
+      <c r="C1" s="57" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="62" t="n">
+      <c r="D1" s="57" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="62" t="n">
+      <c r="E1" s="57" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="62" t="n">
+      <c r="F1" s="57" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="62" t="n">
+      <c r="G1" s="57" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="62" t="n">
+      <c r="H1" s="57" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="62" t="n">
+      <c r="I1" s="57" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="62" t="n">
+      <c r="J1" s="57" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="62" t="n">
+      <c r="K1" s="57" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="62" t="n">
+      <c r="L1" s="57" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="62" t="n">
+      <c r="M1" s="57" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="62" t="n">
+      <c r="N1" s="57" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="62" t="n">
+      <c r="O1" s="57" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="62" t="n">
+      <c r="P1" s="57" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="62" t="n">
+      <c r="Q1" s="57" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="62" t="n">
+      <c r="R1" s="57" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="62" t="n">
+      <c r="S1" s="57" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="62" t="n">
+      <c r="T1" s="57" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="62" t="n">
+      <c r="U1" s="57" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="62" t="n">
+      <c r="V1" s="57" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="62" t="n">
+      <c r="W1" s="57" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="62" t="n">
+      <c r="X1" s="57" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="62" t="n">
+      <c r="Y1" s="57" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="62" t="n">
+      <c r="Z1" s="57" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="62" t="n">
+      <c r="AA1" s="57" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="62" t="n">
+      <c r="AB1" s="57" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="62" t="n">
+      <c r="AC1" s="57" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="62" t="n">
+      <c r="AD1" s="57" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="62" t="n">
+      <c r="AE1" s="57" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="62" t="n">
+      <c r="AF1" s="57" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="62" t="n">
+      <c r="AG1" s="57" t="n">
         <v>31</v>
       </c>
-      <c r="AH1" s="62" t="n">
+      <c r="AH1" s="57" t="n">
         <v>32</v>
       </c>
-      <c r="AI1" s="62" t="n">
+      <c r="AI1" s="57" t="n">
         <v>33</v>
       </c>
-      <c r="AJ1" s="62" t="n">
+      <c r="AJ1" s="57" t="n">
         <v>34</v>
       </c>
-      <c r="AK1" s="62" t="n">
+      <c r="AK1" s="57" t="n">
         <v>35</v>
       </c>
-      <c r="AL1" s="62" t="n">
+      <c r="AL1" s="57" t="n">
         <v>36</v>
       </c>
-      <c r="AM1" s="62" t="n">
+      <c r="AM1" s="57" t="n">
         <v>37</v>
       </c>
-      <c r="AN1" s="62" t="n">
+      <c r="AN1" s="57" t="n">
         <v>38</v>
       </c>
-      <c r="AO1" s="62" t="n">
+      <c r="AO1" s="57" t="n">
         <v>39</v>
       </c>
-      <c r="AP1" s="62" t="n">
+      <c r="AP1" s="57" t="n">
         <v>40</v>
       </c>
-      <c r="AQ1" s="62" t="n">
+      <c r="AQ1" s="57" t="n">
         <v>41</v>
       </c>
-      <c r="AR1" s="61"/>
-      <c r="AS1" s="61"/>
-      <c r="AT1" s="61"/>
-      <c r="AU1" s="61"/>
-      <c r="AV1" s="61"/>
-      <c r="AW1" s="61"/>
-      <c r="AX1" s="61"/>
-      <c r="AY1" s="61"/>
-      <c r="AZ1" s="61"/>
-      <c r="BA1" s="61"/>
-      <c r="BB1" s="61"/>
-      <c r="BC1" s="61"/>
-      <c r="BD1" s="61"/>
-      <c r="BE1" s="61"/>
-      <c r="BF1" s="61"/>
-      <c r="BG1" s="61"/>
-      <c r="BH1" s="61"/>
-      <c r="BI1" s="61"/>
-      <c r="BJ1" s="61"/>
-      <c r="BK1" s="61"/>
-      <c r="BL1" s="61"/>
-      <c r="BM1" s="61"/>
-      <c r="BN1" s="61"/>
-      <c r="BO1" s="61"/>
-      <c r="BP1" s="61"/>
-      <c r="BQ1" s="61"/>
-      <c r="BR1" s="61"/>
-      <c r="BS1" s="61"/>
-      <c r="BT1" s="61"/>
-      <c r="BU1" s="61"/>
-      <c r="BV1" s="61"/>
-      <c r="BW1" s="61"/>
-      <c r="BX1" s="61"/>
-      <c r="BY1" s="61"/>
-      <c r="BZ1" s="61"/>
-      <c r="CA1" s="61"/>
-      <c r="CB1" s="61"/>
-      <c r="CC1" s="61"/>
-      <c r="CD1" s="61"/>
-      <c r="CE1" s="61"/>
-      <c r="CF1" s="61"/>
-      <c r="CG1" s="61"/>
-      <c r="CH1" s="61"/>
-      <c r="CI1" s="61"/>
-      <c r="CJ1" s="61"/>
-      <c r="CK1" s="61"/>
-      <c r="CL1" s="61"/>
-      <c r="CM1" s="61"/>
-      <c r="CN1" s="61"/>
-      <c r="CO1" s="61"/>
-      <c r="CP1" s="61"/>
-      <c r="CQ1" s="61"/>
-      <c r="CR1" s="61"/>
-      <c r="CS1" s="61"/>
-      <c r="CT1" s="61"/>
-      <c r="CU1" s="61"/>
-      <c r="CV1" s="61"/>
-      <c r="CW1" s="61"/>
-      <c r="CX1" s="61"/>
-      <c r="CY1" s="61"/>
-      <c r="CZ1" s="61"/>
-      <c r="DA1" s="61"/>
-      <c r="DB1" s="61"/>
-      <c r="DC1" s="61"/>
-      <c r="DD1" s="61"/>
-      <c r="DE1" s="61"/>
-      <c r="DF1" s="61"/>
-      <c r="DG1" s="61"/>
-      <c r="DH1" s="61"/>
-      <c r="DI1" s="61"/>
-      <c r="DJ1" s="61"/>
-      <c r="DK1" s="61"/>
-      <c r="DL1" s="61"/>
-      <c r="DM1" s="61"/>
-      <c r="DN1" s="61"/>
-      <c r="DO1" s="61"/>
-      <c r="DP1" s="61"/>
-      <c r="DQ1" s="61"/>
-      <c r="DR1" s="61"/>
-      <c r="DS1" s="61"/>
-      <c r="DT1" s="61"/>
-      <c r="DU1" s="61"/>
-      <c r="DV1" s="61"/>
-      <c r="DW1" s="61"/>
-      <c r="DX1" s="61"/>
-      <c r="DY1" s="61"/>
-      <c r="DZ1" s="61"/>
-      <c r="EA1" s="61"/>
-      <c r="EB1" s="61"/>
-      <c r="EC1" s="61"/>
-      <c r="ED1" s="61"/>
-      <c r="EE1" s="61"/>
-      <c r="EF1" s="61"/>
-      <c r="EG1" s="61"/>
-      <c r="EH1" s="61"/>
-      <c r="EI1" s="61"/>
-      <c r="EJ1" s="61"/>
-      <c r="EK1" s="61"/>
-      <c r="EL1" s="61"/>
-      <c r="EM1" s="61"/>
-      <c r="EN1" s="61"/>
-      <c r="EO1" s="61"/>
-      <c r="EP1" s="61"/>
-      <c r="EQ1" s="61"/>
-      <c r="ER1" s="61"/>
-      <c r="ES1" s="61"/>
-      <c r="ET1" s="61"/>
-      <c r="EU1" s="61"/>
-      <c r="EV1" s="61"/>
-      <c r="EW1" s="61"/>
-      <c r="EX1" s="61"/>
-      <c r="EY1" s="61"/>
-      <c r="EZ1" s="61"/>
-      <c r="FA1" s="61"/>
-      <c r="FB1" s="61"/>
-      <c r="FC1" s="61"/>
-      <c r="FD1" s="61"/>
-      <c r="FE1" s="61"/>
-      <c r="FF1" s="61"/>
-      <c r="FG1" s="61"/>
-      <c r="FH1" s="61"/>
-      <c r="FI1" s="61"/>
-      <c r="FJ1" s="61"/>
-      <c r="FK1" s="61"/>
-      <c r="FL1" s="61"/>
-      <c r="FM1" s="61"/>
-      <c r="FN1" s="61"/>
-      <c r="FO1" s="61"/>
-      <c r="FP1" s="61"/>
-      <c r="FQ1" s="61"/>
-      <c r="FR1" s="61"/>
-      <c r="FS1" s="61"/>
-      <c r="FT1" s="61"/>
-      <c r="FU1" s="61"/>
-      <c r="FV1" s="61"/>
-      <c r="FW1" s="61"/>
-      <c r="FX1" s="61"/>
-      <c r="FY1" s="61"/>
-      <c r="FZ1" s="61"/>
-      <c r="GA1" s="61"/>
-      <c r="GB1" s="61"/>
-      <c r="GC1" s="61"/>
-      <c r="GD1" s="61"/>
-      <c r="GE1" s="61"/>
-      <c r="GF1" s="61"/>
-      <c r="GG1" s="61"/>
-      <c r="GH1" s="61"/>
-      <c r="GI1" s="61"/>
-      <c r="GJ1" s="61"/>
-      <c r="GK1" s="61"/>
-      <c r="GL1" s="61"/>
-      <c r="GM1" s="61"/>
-      <c r="GN1" s="61"/>
-      <c r="GO1" s="61"/>
-      <c r="GP1" s="61"/>
-      <c r="GQ1" s="61"/>
-      <c r="GR1" s="61"/>
-      <c r="GS1" s="61"/>
-      <c r="GT1" s="61"/>
-      <c r="GU1" s="61"/>
-      <c r="GV1" s="61"/>
-      <c r="GW1" s="61"/>
-      <c r="GX1" s="61"/>
-      <c r="GY1" s="61"/>
-      <c r="GZ1" s="61"/>
-      <c r="HA1" s="61"/>
-      <c r="HB1" s="61"/>
-      <c r="HC1" s="61"/>
-      <c r="HD1" s="61"/>
-      <c r="HE1" s="61"/>
-      <c r="HF1" s="61"/>
-      <c r="HG1" s="61"/>
-      <c r="HH1" s="61"/>
-      <c r="HI1" s="61"/>
-      <c r="HJ1" s="61"/>
-      <c r="HK1" s="61"/>
-      <c r="HL1" s="61"/>
-      <c r="HM1" s="61"/>
-      <c r="HN1" s="61"/>
-      <c r="HO1" s="61"/>
-      <c r="HP1" s="61"/>
-      <c r="HQ1" s="61"/>
-      <c r="HR1" s="61"/>
-      <c r="HS1" s="61"/>
-      <c r="HT1" s="61"/>
-      <c r="HU1" s="61"/>
-      <c r="HV1" s="61"/>
-      <c r="HW1" s="61"/>
-      <c r="HX1" s="61"/>
-      <c r="HY1" s="61"/>
-      <c r="HZ1" s="61"/>
-      <c r="IA1" s="61"/>
-      <c r="IB1" s="61"/>
-      <c r="IC1" s="61"/>
-      <c r="ID1" s="61"/>
-      <c r="IE1" s="61"/>
-      <c r="IF1" s="61"/>
-      <c r="IG1" s="61"/>
-      <c r="IH1" s="61"/>
-      <c r="II1" s="61"/>
-      <c r="IJ1" s="61"/>
-      <c r="IK1" s="61"/>
-      <c r="IL1" s="61"/>
-      <c r="IM1" s="61"/>
-      <c r="IN1" s="61"/>
-      <c r="IO1" s="61"/>
-      <c r="IP1" s="61"/>
-      <c r="IQ1" s="61"/>
-      <c r="IR1" s="61"/>
-      <c r="IS1" s="61"/>
-      <c r="IT1" s="61"/>
-      <c r="IU1" s="61"/>
-      <c r="IV1" s="61"/>
-      <c r="IW1" s="61"/>
-      <c r="IX1" s="61"/>
-      <c r="IY1" s="61"/>
-      <c r="IZ1" s="61"/>
-      <c r="JA1" s="61"/>
-      <c r="JB1" s="61"/>
-      <c r="JC1" s="61"/>
-      <c r="JD1" s="61"/>
-      <c r="JE1" s="61"/>
-      <c r="JF1" s="61"/>
-      <c r="JG1" s="61"/>
-      <c r="JH1" s="61"/>
-      <c r="JI1" s="61"/>
-      <c r="JJ1" s="61"/>
-      <c r="JK1" s="61"/>
-      <c r="JL1" s="61"/>
-      <c r="JM1" s="61"/>
-      <c r="JN1" s="61"/>
-      <c r="JO1" s="61"/>
-      <c r="JP1" s="61"/>
-      <c r="JQ1" s="61"/>
-      <c r="JR1" s="61"/>
+      <c r="AR1" s="56"/>
+      <c r="AS1" s="56"/>
+      <c r="AT1" s="56"/>
+      <c r="AU1" s="56"/>
+      <c r="AV1" s="56"/>
+      <c r="AW1" s="56"/>
+      <c r="AX1" s="56"/>
+      <c r="AY1" s="56"/>
+      <c r="AZ1" s="56"/>
+      <c r="BA1" s="56"/>
+      <c r="BB1" s="56"/>
+      <c r="BC1" s="56"/>
+      <c r="BD1" s="56"/>
+      <c r="BE1" s="56"/>
+      <c r="BF1" s="56"/>
+      <c r="BG1" s="56"/>
+      <c r="BH1" s="56"/>
+      <c r="BI1" s="56"/>
+      <c r="BJ1" s="56"/>
+      <c r="BK1" s="56"/>
+      <c r="BL1" s="56"/>
+      <c r="BM1" s="56"/>
+      <c r="BN1" s="56"/>
+      <c r="BO1" s="56"/>
+      <c r="BP1" s="56"/>
+      <c r="BQ1" s="56"/>
+      <c r="BR1" s="56"/>
+      <c r="BS1" s="56"/>
+      <c r="BT1" s="56"/>
+      <c r="BU1" s="56"/>
+      <c r="BV1" s="56"/>
+      <c r="BW1" s="56"/>
+      <c r="BX1" s="56"/>
+      <c r="BY1" s="56"/>
+      <c r="BZ1" s="56"/>
+      <c r="CA1" s="56"/>
+      <c r="CB1" s="56"/>
+      <c r="CC1" s="56"/>
+      <c r="CD1" s="56"/>
+      <c r="CE1" s="56"/>
+      <c r="CF1" s="56"/>
+      <c r="CG1" s="56"/>
+      <c r="CH1" s="56"/>
+      <c r="CI1" s="56"/>
+      <c r="CJ1" s="56"/>
+      <c r="CK1" s="56"/>
+      <c r="CL1" s="56"/>
+      <c r="CM1" s="56"/>
+      <c r="CN1" s="56"/>
+      <c r="CO1" s="56"/>
+      <c r="CP1" s="56"/>
+      <c r="CQ1" s="56"/>
+      <c r="CR1" s="56"/>
+      <c r="CS1" s="56"/>
+      <c r="CT1" s="56"/>
+      <c r="CU1" s="56"/>
+      <c r="CV1" s="56"/>
+      <c r="CW1" s="56"/>
+      <c r="CX1" s="56"/>
+      <c r="CY1" s="56"/>
+      <c r="CZ1" s="56"/>
+      <c r="DA1" s="56"/>
+      <c r="DB1" s="56"/>
+      <c r="DC1" s="56"/>
+      <c r="DD1" s="56"/>
+      <c r="DE1" s="56"/>
+      <c r="DF1" s="56"/>
+      <c r="DG1" s="56"/>
+      <c r="DH1" s="56"/>
+      <c r="DI1" s="56"/>
+      <c r="DJ1" s="56"/>
+      <c r="DK1" s="56"/>
+      <c r="DL1" s="56"/>
+      <c r="DM1" s="56"/>
+      <c r="DN1" s="56"/>
+      <c r="DO1" s="56"/>
+      <c r="DP1" s="56"/>
+      <c r="DQ1" s="56"/>
+      <c r="DR1" s="56"/>
+      <c r="DS1" s="56"/>
+      <c r="DT1" s="56"/>
+      <c r="DU1" s="56"/>
+      <c r="DV1" s="56"/>
+      <c r="DW1" s="56"/>
+      <c r="DX1" s="56"/>
+      <c r="DY1" s="56"/>
+      <c r="DZ1" s="56"/>
+      <c r="EA1" s="56"/>
+      <c r="EB1" s="56"/>
+      <c r="EC1" s="56"/>
+      <c r="ED1" s="56"/>
+      <c r="EE1" s="56"/>
+      <c r="EF1" s="56"/>
+      <c r="EG1" s="56"/>
+      <c r="EH1" s="56"/>
+      <c r="EI1" s="56"/>
+      <c r="EJ1" s="56"/>
+      <c r="EK1" s="56"/>
+      <c r="EL1" s="56"/>
+      <c r="EM1" s="56"/>
+      <c r="EN1" s="56"/>
+      <c r="EO1" s="56"/>
+      <c r="EP1" s="56"/>
+      <c r="EQ1" s="56"/>
+      <c r="ER1" s="56"/>
+      <c r="ES1" s="56"/>
+      <c r="ET1" s="56"/>
+      <c r="EU1" s="56"/>
+      <c r="EV1" s="56"/>
+      <c r="EW1" s="56"/>
+      <c r="EX1" s="56"/>
+      <c r="EY1" s="56"/>
+      <c r="EZ1" s="56"/>
+      <c r="FA1" s="56"/>
+      <c r="FB1" s="56"/>
+      <c r="FC1" s="56"/>
+      <c r="FD1" s="56"/>
+      <c r="FE1" s="56"/>
+      <c r="FF1" s="56"/>
+      <c r="FG1" s="56"/>
+      <c r="FH1" s="56"/>
+      <c r="FI1" s="56"/>
+      <c r="FJ1" s="56"/>
+      <c r="FK1" s="56"/>
+      <c r="FL1" s="56"/>
+      <c r="FM1" s="56"/>
+      <c r="FN1" s="56"/>
+      <c r="FO1" s="56"/>
+      <c r="FP1" s="56"/>
+      <c r="FQ1" s="56"/>
+      <c r="FR1" s="56"/>
+      <c r="FS1" s="56"/>
+      <c r="FT1" s="56"/>
+      <c r="FU1" s="56"/>
+      <c r="FV1" s="56"/>
+      <c r="FW1" s="56"/>
+      <c r="FX1" s="56"/>
+      <c r="FY1" s="56"/>
+      <c r="FZ1" s="56"/>
+      <c r="GA1" s="56"/>
+      <c r="GB1" s="56"/>
+      <c r="GC1" s="56"/>
+      <c r="GD1" s="56"/>
+      <c r="GE1" s="56"/>
+      <c r="GF1" s="56"/>
+      <c r="GG1" s="56"/>
+      <c r="GH1" s="56"/>
+      <c r="GI1" s="56"/>
+      <c r="GJ1" s="56"/>
+      <c r="GK1" s="56"/>
+      <c r="GL1" s="56"/>
+      <c r="GM1" s="56"/>
+      <c r="GN1" s="56"/>
+      <c r="GO1" s="56"/>
+      <c r="GP1" s="56"/>
+      <c r="GQ1" s="56"/>
+      <c r="GR1" s="56"/>
+      <c r="GS1" s="56"/>
+      <c r="GT1" s="56"/>
+      <c r="GU1" s="56"/>
+      <c r="GV1" s="56"/>
+      <c r="GW1" s="56"/>
+      <c r="GX1" s="56"/>
+      <c r="GY1" s="56"/>
+      <c r="GZ1" s="56"/>
+      <c r="HA1" s="56"/>
+      <c r="HB1" s="56"/>
+      <c r="HC1" s="56"/>
+      <c r="HD1" s="56"/>
+      <c r="HE1" s="56"/>
+      <c r="HF1" s="56"/>
+      <c r="HG1" s="56"/>
+      <c r="HH1" s="56"/>
+      <c r="HI1" s="56"/>
+      <c r="HJ1" s="56"/>
+      <c r="HK1" s="56"/>
+      <c r="HL1" s="56"/>
+      <c r="HM1" s="56"/>
+      <c r="HN1" s="56"/>
+      <c r="HO1" s="56"/>
+      <c r="HP1" s="56"/>
+      <c r="HQ1" s="56"/>
+      <c r="HR1" s="56"/>
+      <c r="HS1" s="56"/>
+      <c r="HT1" s="56"/>
+      <c r="HU1" s="56"/>
+      <c r="HV1" s="56"/>
+      <c r="HW1" s="56"/>
+      <c r="HX1" s="56"/>
+      <c r="HY1" s="56"/>
+      <c r="HZ1" s="56"/>
+      <c r="IA1" s="56"/>
+      <c r="IB1" s="56"/>
+      <c r="IC1" s="56"/>
+      <c r="ID1" s="56"/>
+      <c r="IE1" s="56"/>
+      <c r="IF1" s="56"/>
+      <c r="IG1" s="56"/>
+      <c r="IH1" s="56"/>
+      <c r="II1" s="56"/>
+      <c r="IJ1" s="56"/>
+      <c r="IK1" s="56"/>
+      <c r="IL1" s="56"/>
+      <c r="IM1" s="56"/>
+      <c r="IN1" s="56"/>
+      <c r="IO1" s="56"/>
+      <c r="IP1" s="56"/>
+      <c r="IQ1" s="56"/>
+      <c r="IR1" s="56"/>
+      <c r="IS1" s="56"/>
+      <c r="IT1" s="56"/>
+      <c r="IU1" s="56"/>
+      <c r="IV1" s="56"/>
+      <c r="IW1" s="56"/>
+      <c r="IX1" s="56"/>
+      <c r="IY1" s="56"/>
+      <c r="IZ1" s="56"/>
+      <c r="JA1" s="56"/>
+      <c r="JB1" s="56"/>
+      <c r="JC1" s="56"/>
+      <c r="JD1" s="56"/>
+      <c r="JE1" s="56"/>
+      <c r="JF1" s="56"/>
+      <c r="JG1" s="56"/>
+      <c r="JH1" s="56"/>
+      <c r="JI1" s="56"/>
+      <c r="JJ1" s="56"/>
+      <c r="JK1" s="56"/>
+      <c r="JL1" s="56"/>
+      <c r="JM1" s="56"/>
+      <c r="JN1" s="56"/>
+      <c r="JO1" s="56"/>
+      <c r="JP1" s="56"/>
+      <c r="JQ1" s="56"/>
+      <c r="JR1" s="56"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="B2" s="63" t="n">
+        <v>114</v>
+      </c>
+      <c r="B2" s="58" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="63" t="n">
+      <c r="C2" s="58" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="63" t="n">
+      <c r="D2" s="58" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="63" t="n">
+      <c r="E2" s="58" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="63" t="n">
+      <c r="F2" s="58" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="63" t="n">
+      <c r="G2" s="58" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="63" t="n">
+      <c r="H2" s="58" t="n">
         <v>0.12</v>
       </c>
-      <c r="I2" s="63" t="n">
+      <c r="I2" s="58" t="n">
         <v>0.14</v>
       </c>
-      <c r="J2" s="63" t="n">
+      <c r="J2" s="58" t="n">
         <v>0.16</v>
       </c>
-      <c r="K2" s="63" t="n">
+      <c r="K2" s="58" t="n">
         <v>0.18</v>
       </c>
-      <c r="L2" s="63" t="n">
+      <c r="L2" s="58" t="n">
         <v>0.2</v>
       </c>
-      <c r="M2" s="63" t="n">
+      <c r="M2" s="58" t="n">
         <v>0.22</v>
       </c>
-      <c r="N2" s="63" t="n">
+      <c r="N2" s="58" t="n">
         <v>0.24</v>
       </c>
-      <c r="O2" s="63" t="n">
+      <c r="O2" s="58" t="n">
         <v>0.26</v>
       </c>
-      <c r="P2" s="63" t="n">
+      <c r="P2" s="58" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q2" s="63" t="n">
+      <c r="Q2" s="58" t="n">
         <v>0.3</v>
       </c>
-      <c r="R2" s="63" t="n">
+      <c r="R2" s="58" t="n">
         <v>0.32</v>
       </c>
-      <c r="S2" s="63" t="n">
+      <c r="S2" s="58" t="n">
         <v>0.34</v>
       </c>
-      <c r="T2" s="63" t="n">
+      <c r="T2" s="58" t="n">
         <v>0.36</v>
       </c>
-      <c r="U2" s="63" t="n">
+      <c r="U2" s="58" t="n">
         <v>0.38</v>
       </c>
-      <c r="V2" s="63" t="n">
+      <c r="V2" s="58" t="n">
         <v>0.4</v>
       </c>
-      <c r="W2" s="63" t="n">
+      <c r="W2" s="58" t="n">
         <v>0.42</v>
       </c>
-      <c r="X2" s="63" t="n">
+      <c r="X2" s="58" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y2" s="63" t="n">
+      <c r="Y2" s="58" t="n">
         <v>0.46</v>
       </c>
-      <c r="Z2" s="63" t="n">
+      <c r="Z2" s="58" t="n">
         <v>0.48</v>
       </c>
-      <c r="AA2" s="63" t="n">
+      <c r="AA2" s="58" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB2" s="63" t="n">
+      <c r="AB2" s="58" t="n">
         <v>0.52</v>
       </c>
-      <c r="AC2" s="63" t="n">
+      <c r="AC2" s="58" t="n">
         <v>0.54</v>
       </c>
-      <c r="AD2" s="63" t="n">
+      <c r="AD2" s="58" t="n">
         <v>0.56</v>
       </c>
-      <c r="AE2" s="63" t="n">
+      <c r="AE2" s="58" t="n">
         <v>0.58</v>
       </c>
-      <c r="AF2" s="63" t="n">
+      <c r="AF2" s="58" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG2" s="63" t="n">
+      <c r="AG2" s="58" t="n">
         <v>0.62</v>
       </c>
-      <c r="AH2" s="63" t="n">
+      <c r="AH2" s="58" t="n">
         <v>0.64</v>
       </c>
-      <c r="AI2" s="63" t="n">
+      <c r="AI2" s="58" t="n">
         <v>0.66</v>
       </c>
-      <c r="AJ2" s="63" t="n">
+      <c r="AJ2" s="58" t="n">
         <v>0.68</v>
       </c>
-      <c r="AK2" s="63" t="n">
+      <c r="AK2" s="58" t="n">
         <v>0.7</v>
       </c>
-      <c r="AL2" s="63" t="n">
+      <c r="AL2" s="58" t="n">
         <v>0.72</v>
       </c>
-      <c r="AM2" s="63" t="n">
+      <c r="AM2" s="58" t="n">
         <v>0.74</v>
       </c>
-      <c r="AN2" s="63" t="n">
+      <c r="AN2" s="58" t="n">
         <v>0.76</v>
       </c>
-      <c r="AO2" s="63" t="n">
+      <c r="AO2" s="58" t="n">
         <v>0.78</v>
       </c>
-      <c r="AP2" s="63" t="n">
+      <c r="AP2" s="58" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ2" s="63" t="n">
+      <c r="AQ2" s="58" t="n">
         <v>0.82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-10.25</v>
@@ -9785,17 +9667,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9926,7 +9808,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -10057,269 +9939,269 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AB9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AC9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AD9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AE9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AF9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AH9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AI9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AJ9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AK9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AM9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AN9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AO9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AP9" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="AQ9" s="4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AB9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AC9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AD9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AE9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AF9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AG9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AH9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AI9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AJ9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AK9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AM9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AN9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AO9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AP9" s="4" t="s">
-        <v>125</v>
-      </c>
-      <c r="AQ9" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="s">
-        <v>126</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1000</v>
@@ -10450,138 +10332,138 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12" s="49" t="n">
+        <v>125</v>
+      </c>
+      <c r="B12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="C12" s="49" t="n">
+      <c r="C12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="D12" s="49" t="n">
+      <c r="D12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="E12" s="49" t="n">
+      <c r="E12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="F12" s="49" t="n">
+      <c r="F12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="G12" s="49" t="n">
+      <c r="G12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="H12" s="49" t="n">
+      <c r="H12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="I12" s="49" t="n">
+      <c r="I12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="J12" s="49" t="n">
+      <c r="J12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="K12" s="49" t="n">
+      <c r="K12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="L12" s="49" t="n">
+      <c r="L12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="M12" s="49" t="n">
+      <c r="M12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="N12" s="49" t="n">
+      <c r="N12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="O12" s="49" t="n">
+      <c r="O12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="P12" s="49" t="n">
+      <c r="P12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="Q12" s="49" t="n">
+      <c r="Q12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="R12" s="49" t="n">
+      <c r="R12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="S12" s="49" t="n">
+      <c r="S12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="T12" s="49" t="n">
+      <c r="T12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="U12" s="49" t="n">
+      <c r="U12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="V12" s="49" t="n">
+      <c r="V12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="W12" s="49" t="n">
+      <c r="W12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="X12" s="49" t="n">
+      <c r="X12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="Y12" s="49" t="n">
+      <c r="Y12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="Z12" s="49" t="n">
+      <c r="Z12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AA12" s="49" t="n">
+      <c r="AA12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AB12" s="49" t="n">
+      <c r="AB12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AC12" s="49" t="n">
+      <c r="AC12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AD12" s="49" t="n">
+      <c r="AD12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AE12" s="49" t="n">
+      <c r="AE12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AF12" s="49" t="n">
+      <c r="AF12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AG12" s="49" t="n">
+      <c r="AG12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AH12" s="49" t="n">
+      <c r="AH12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AI12" s="49" t="n">
+      <c r="AI12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AJ12" s="49" t="n">
+      <c r="AJ12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AK12" s="49" t="n">
+      <c r="AK12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AL12" s="49" t="n">
+      <c r="AL12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AM12" s="49" t="n">
+      <c r="AM12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AN12" s="49" t="n">
+      <c r="AN12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AO12" s="49" t="n">
+      <c r="AO12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AP12" s="49" t="n">
+      <c r="AP12" s="44" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AQ12" s="49" t="n">
+      <c r="AQ12" s="44" t="n">
         <v>225000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.75</v>
@@ -10712,7 +10594,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -10843,7 +10725,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -10974,7 +10856,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -11105,7 +10987,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3000</v>
@@ -11236,7 +11118,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.15</v>

--- a/in/2cam_sweep1kev.xlsx
+++ b/in/2cam_sweep1kev.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="987" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sim" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
   <calcPr iterateCount="100" refMode="A1" iterate="true" iterateDelta="0.001"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="Unspecified"/>
+      <loext:extCalcPr stringRefSyntax="CalcA1"/>
     </ext>
   </extLst>
 </workbook>
@@ -88,20 +88,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="A36" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-            <charset val="1"/>
-          </rPr>
-          <t>Use this normally</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="A38" authorId="0">
+    <comment ref="A35" authorId="0">
       <text>
         <r>
           <rPr>
@@ -253,402 +240,396 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="215" uniqueCount="132">
-  <si>
-    <t>Sim</t>
-  </si>
-  <si>
-    <t>Cams</t>
-  </si>
-  <si>
-    <t>Fwdf</t>
-  </si>
-  <si>
-    <t>Recon</t>
-  </si>
-  <si>
-    <t>Transcar</t>
-  </si>
-  <si>
-    <t>COMMENT1</t>
-  </si>
-  <si>
-    <t>Simulated transverse Aurora</t>
-  </si>
-  <si>
-    <t>COMMENT2</t>
-  </si>
-  <si>
-    <t>cal1Ddir</t>
-  </si>
-  <si>
-    <t>precompute/</t>
-  </si>
-  <si>
-    <t>ActualDataDir</t>
-  </si>
-  <si>
-    <t>BG3transFN</t>
-  </si>
-  <si>
-    <t>transcarutils/precompute/BG3transmittance.h5</t>
-  </si>
-  <si>
-    <t>windowFN</t>
-  </si>
-  <si>
-    <t>transcarutils/precompute/ixonWindowT.h5</t>
-  </si>
-  <si>
-    <t>emccdQEfn</t>
-  </si>
-  <si>
-    <t>transcarutils/precompute/emccdQE.h5</t>
-  </si>
-  <si>
-    <t>TranscarDataDir</t>
-  </si>
-  <si>
-    <t>../transcar/out/ifort2</t>
-  </si>
-  <si>
-    <t>ExcitationDATfn</t>
-  </si>
-  <si>
-    <t>emissions.dat</t>
-  </si>
-  <si>
-    <t>tReq</t>
-  </si>
-  <si>
-    <t>2013-03-31T09:00:30Z</t>
-  </si>
-  <si>
-    <t>timestepsPerExposure</t>
-  </si>
-  <si>
-    <t>simconfig</t>
-  </si>
-  <si>
-    <t>DATCAR</t>
-  </si>
-  <si>
-    <t>useActualData</t>
-  </si>
-  <si>
-    <t>minBeameV</t>
-  </si>
-  <si>
-    <t>BeamEnergyFN</t>
-  </si>
-  <si>
-    <t>../transcar/dir.transcar.server/BT_E1E2prev.csv</t>
-  </si>
-  <si>
-    <t>reactionParam</t>
-  </si>
-  <si>
-    <t>transcarutils/precompute/vjeinfc.h5</t>
-  </si>
-  <si>
-    <t>altitudePreload</t>
-  </si>
-  <si>
-    <t>../transcar/dir.transcar.server/dir.input/conttanh.dat</t>
-  </si>
-  <si>
-    <t>downsampleEnergy</t>
-  </si>
-  <si>
-    <t>lambdamin</t>
-  </si>
-  <si>
-    <t>lambdamax</t>
-  </si>
-  <si>
-    <t>OpticalFilter</t>
-  </si>
-  <si>
-    <t>bg3</t>
-  </si>
-  <si>
-    <t>metastable</t>
-  </si>
-  <si>
-    <t>atomic</t>
-  </si>
-  <si>
-    <t>N21NG</t>
-  </si>
-  <si>
-    <t>N2Meinel</t>
-  </si>
-  <si>
-    <t>N22PG</t>
-  </si>
-  <si>
-    <t>N21PG</t>
-  </si>
-  <si>
-    <t>loadVER</t>
-  </si>
-  <si>
-    <t>verfn</t>
-  </si>
-  <si>
-    <t>saveEll</t>
-  </si>
-  <si>
-    <t>loadEll</t>
-  </si>
-  <si>
-    <t>RayAngleMapping</t>
-  </si>
-  <si>
-    <t>arbitrary</t>
-  </si>
-  <si>
-    <t>reqStartUT</t>
-  </si>
-  <si>
-    <t>reqStopUT</t>
-  </si>
-  <si>
-    <t>UseTCz</t>
-  </si>
-  <si>
-    <t>XcellKM</t>
-  </si>
-  <si>
-    <t>ZcellKM</t>
-  </si>
-  <si>
-    <t>XminKM</t>
-  </si>
-  <si>
-    <t>XmaxKM</t>
-  </si>
-  <si>
-    <t>ZminKM</t>
-  </si>
-  <si>
-    <t>ZmaxKM</t>
-  </si>
-  <si>
-    <t>maxentLambda</t>
-  </si>
-  <si>
-    <t>OptimFluxMethod</t>
-  </si>
-  <si>
-    <t>L-BFGS-B</t>
-  </si>
-  <si>
-    <t>OptimMaxiter</t>
-  </si>
-  <si>
-    <t>minflux</t>
-  </si>
-  <si>
-    <t>maxIter</t>
-  </si>
-  <si>
-    <t>stoprule</t>
-  </si>
-  <si>
-    <t>lambda</t>
-  </si>
-  <si>
-    <t>initVector</t>
-  </si>
-  <si>
-    <t>MDPtauDelta</t>
-  </si>
-  <si>
-    <t>TSVD</t>
-  </si>
-  <si>
-    <t>EllIs</t>
-  </si>
-  <si>
-    <t>lineLength</t>
-  </si>
-  <si>
-    <t>useCam</t>
-  </si>
-  <si>
-    <t>Xkm</t>
-  </si>
-  <si>
-    <t>Zkm</t>
-  </si>
-  <si>
-    <t>nCutPix</t>
-  </si>
-  <si>
-    <t>boresightElevDeg</t>
-  </si>
-  <si>
-    <t>FOVdeg</t>
-  </si>
-  <si>
-    <t>FOVmaxLengthKM</t>
-  </si>
-  <si>
-    <t>noiseLam</t>
-  </si>
-  <si>
-    <t>CCDBias</t>
-  </si>
-  <si>
-    <t>fullFileStartUTC</t>
-  </si>
-  <si>
-    <t>timeShiftSec</t>
-  </si>
-  <si>
-    <t>kineticsec</t>
-  </si>
-  <si>
-    <t>rotCCW</t>
-  </si>
-  <si>
-    <t>flipLR</t>
-  </si>
-  <si>
-    <t>flipUD</t>
-  </si>
-  <si>
-    <t>transpose</t>
-  </si>
-  <si>
-    <t>fn</t>
-  </si>
-  <si>
-    <t>plotMinVal</t>
-  </si>
-  <si>
-    <t>plotMaxVal</t>
-  </si>
-  <si>
-    <t>intensityScaleFactor</t>
-  </si>
-  <si>
-    <t>lowerthres</t>
-  </si>
-  <si>
-    <t>debiasData</t>
-  </si>
-  <si>
-    <t>smoothspan</t>
-  </si>
-  <si>
-    <t>savgolOrder</t>
-  </si>
-  <si>
-    <t>xPix</t>
-  </si>
-  <si>
-    <t>yPix</t>
-  </si>
-  <si>
-    <t>xBin</t>
-  </si>
-  <si>
-    <t>yBin</t>
-  </si>
-  <si>
-    <t>nHead16</t>
-  </si>
-  <si>
-    <t>latWGS84</t>
-  </si>
-  <si>
-    <t>lonWGS84</t>
-  </si>
-  <si>
-    <t>Bincl</t>
-  </si>
-  <si>
-    <t>Bdecl</t>
-  </si>
-  <si>
-    <t>Bepoch</t>
-  </si>
-  <si>
-    <t>2013-04-14T08:54:00Z</t>
-  </si>
-  <si>
-    <t>cal1Dname</t>
-  </si>
-  <si>
-    <t>hst0cal.h5</t>
-  </si>
-  <si>
-    <t>hst1cal.h5</t>
-  </si>
-  <si>
-    <t>pixarea_sqcm</t>
-  </si>
-  <si>
-    <t>pedn</t>
-  </si>
-  <si>
-    <t>ampgain</t>
-  </si>
-  <si>
-    <t>tReqOffsetSec</t>
-  </si>
-  <si>
-    <t>X0km</t>
-  </si>
-  <si>
-    <t>Z0km</t>
-  </si>
-  <si>
-    <t>Hkm</t>
-  </si>
-  <si>
-    <t>Wkm</t>
-  </si>
-  <si>
-    <t>Pnorm</t>
-  </si>
-  <si>
-    <t>Xshape</t>
-  </si>
-  <si>
-    <t>gaussian</t>
-  </si>
-  <si>
-    <t>Zshape</t>
-  </si>
-  <si>
-    <t>transcar</t>
-  </si>
-  <si>
-    <t>E0</t>
-  </si>
-  <si>
-    <t>Q0</t>
-  </si>
-  <si>
-    <t>Wbc</t>
-  </si>
-  <si>
-    <t>bl</t>
-  </si>
-  <si>
-    <t>bm</t>
-  </si>
-  <si>
-    <t>bh</t>
-  </si>
-  <si>
-    <t>Bm</t>
-  </si>
-  <si>
-    <t>Bhf</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="130">
+  <si>
+    <t xml:space="preserve">Sim</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fwdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Recon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Transcar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Simulated transverse Aurora</t>
+  </si>
+  <si>
+    <t xml:space="preserve">COMMENT2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cal1Ddir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">precompute/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ActualDataDir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BG3transFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcarutils/precompute/BG3transmittance.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">windowFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcarutils/precompute/ixonWindowT.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emccdQEfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcarutils/precompute/emccdQE.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TranscarDataDir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../transcar/out/ifort2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ExcitationDATfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">emissions.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tReq</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-03-31T09:00:30Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timestepsPerExposure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">simconfig</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DATCAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useActualData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minBeameV</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BeamEnergyFN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../transcar/dir.transcar.server/BT_E1E2prev.csv</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reactionParam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcarutils/precompute/vjeinfc.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">altitudePreload</t>
+  </si>
+  <si>
+    <t xml:space="preserve">../transcar/dir.transcar.server/dir.input/conttanh.dat</t>
+  </si>
+  <si>
+    <t xml:space="preserve">downsampleEnergy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambdamin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambdamax</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OpticalFilter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bg3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">metastable</t>
+  </si>
+  <si>
+    <t xml:space="preserve">atomic</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N21NG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N2Meinel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N22PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">N21PG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">loadVER</t>
+  </si>
+  <si>
+    <t xml:space="preserve">verfn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RayAngleMapping</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arbitrary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reqStartUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">reqStopUT</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UseTCz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XcellKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZcellKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XminKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">XmaxKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZminKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ZmaxKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxentLambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptimFluxMethod</t>
+  </si>
+  <si>
+    <t xml:space="preserve">L-BFGS-B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">OptimMaxiter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">minflux</t>
+  </si>
+  <si>
+    <t xml:space="preserve">maxIter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">stoprule</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lambda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">initVector</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MDPtauDelta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TSVD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">EllIs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lineLength</t>
+  </si>
+  <si>
+    <t xml:space="preserve">useCam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nCutPix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">boresightElevDeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOVdeg</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FOVmaxLengthKM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">noiseLam</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CCDBias</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fullFileStartUTC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">timeShiftSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">kineticsec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">rotCCW</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flipLR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">flipUD</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transpose</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plotMinVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">plotMaxVal</t>
+  </si>
+  <si>
+    <t xml:space="preserve">intensityScaleFactor</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lowerthres</t>
+  </si>
+  <si>
+    <t xml:space="preserve">debiasData</t>
+  </si>
+  <si>
+    <t xml:space="preserve">smoothspan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">savgolOrder</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xPix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yPix</t>
+  </si>
+  <si>
+    <t xml:space="preserve">xBin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">yBin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nHead16</t>
+  </si>
+  <si>
+    <t xml:space="preserve">latWGS84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lonWGS84</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bincl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bdecl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bepoch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2013-04-14T08:54:00Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cal1Dname</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hst0cal.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">hst1cal.h5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pixarea_sqcm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">pedn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ampgain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tReqOffsetSec</t>
+  </si>
+  <si>
+    <t xml:space="preserve">X0km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Z0km</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wkm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pnorm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Xshape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">gaussian</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Zshape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">transcar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">E0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Q0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wbc</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bl</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">bh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bm</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bhf</t>
   </si>
 </sst>
 </file>
@@ -656,13 +637,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="164" formatCode="GENERAL"/>
+    <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="@"/>
     <numFmt numFmtId="166" formatCode="0.00E+000"/>
     <numFmt numFmtId="167" formatCode="0"/>
     <numFmt numFmtId="168" formatCode="0.00E+00"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="17">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -756,22 +737,6 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FFFF0000"/>
-      <name val="Sans"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="8"/>
-      <color rgb="FF000000"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="Sans"/>
@@ -808,14 +773,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
-        <bgColor rgb="FFFF3333"/>
+        <fgColor rgb="FFFF3333"/>
+        <bgColor rgb="FFFF0000"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFF3333"/>
-        <bgColor rgb="FFFF0000"/>
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FFFF3333"/>
       </patternFill>
     </fill>
   </fills>
@@ -944,7 +909,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="58">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1045,15 +1010,7 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1062,6 +1019,10 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1105,19 +1066,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="4" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="5" fillId="3" borderId="12" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1133,7 +1094,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1173,7 +1134,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="167" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1259,23 +1220,23 @@
     <tabColor rgb="FFFFFFFF"/>
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F65"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="F2" activeCellId="0" sqref="F2"/>
+      <selection pane="bottomLeft" activeCell="A34" activeCellId="0" sqref="A34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.85"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="24.7040816326531"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="35.6377551020408"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.3418367346939"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="7.96428571428571"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.56122448979592"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.2142857142857"/>
-    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="25.0561224489796"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="36.2857142857143"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="11.4489795918367"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="8.10204081632653"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="7.66836734693878"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="28.6173469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="7" style="0" width="11.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1600,181 +1561,182 @@
       <c r="C34" s="5"/>
       <c r="F34" s="0"/>
     </row>
-    <row r="35" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="25" t="s">
         <v>47</v>
       </c>
-      <c r="B35" s="26" t="n">
-        <v>0</v>
-      </c>
-      <c r="C35" s="26"/>
+      <c r="B35" s="0"/>
+      <c r="C35" s="26" t="s">
+        <v>48</v>
+      </c>
       <c r="F35" s="0"/>
     </row>
-    <row r="36" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B36" s="22" t="n">
-        <v>1</v>
-      </c>
-      <c r="C36" s="22"/>
+    <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B36" s="0"/>
+      <c r="C36" s="0"/>
       <c r="F36" s="0"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="5"/>
+      <c r="A37" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B37" s="0"/>
+      <c r="C37" s="0"/>
       <c r="F37" s="0"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="27" t="s">
-        <v>49</v>
+      <c r="A38" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="B38" s="0"/>
-      <c r="C38" s="28" t="s">
-        <v>50</v>
-      </c>
+      <c r="C38" s="0"/>
       <c r="F38" s="0"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="4"/>
       <c r="B39" s="0"/>
       <c r="C39" s="0"/>
       <c r="F39" s="0"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="4" t="s">
+      <c r="A40" s="27" t="s">
         <v>51</v>
       </c>
       <c r="B40" s="0"/>
-      <c r="C40" s="0"/>
-      <c r="F40" s="0"/>
+      <c r="C40" s="13"/>
+      <c r="F40" s="15" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="4" t="s">
+      <c r="A41" s="28" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="0"/>
       <c r="C41" s="0"/>
+      <c r="D41" s="29" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="E41" s="30"/>
       <c r="F41" s="0"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="4"/>
+      <c r="A42" s="28" t="s">
+        <v>53</v>
+      </c>
       <c r="B42" s="0"/>
       <c r="C42" s="0"/>
+      <c r="D42" s="31"/>
+      <c r="E42" s="32"/>
       <c r="F42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="25" t="s">
-        <v>53</v>
+      <c r="A43" s="28" t="s">
+        <v>54</v>
       </c>
       <c r="B43" s="0"/>
-      <c r="C43" s="13"/>
-      <c r="F43" s="15" t="n">
-        <v>1</v>
-      </c>
+      <c r="C43" s="0"/>
+      <c r="D43" s="31" t="n">
+        <v>-10</v>
+      </c>
+      <c r="E43" s="32"/>
+      <c r="F43" s="0"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="29" t="s">
-        <v>54</v>
+      <c r="A44" s="28" t="s">
+        <v>55</v>
       </c>
       <c r="B44" s="0"/>
       <c r="C44" s="0"/>
-      <c r="D44" s="30" t="n">
-        <v>0.05</v>
-      </c>
-      <c r="E44" s="31"/>
+      <c r="D44" s="31" t="n">
+        <v>10</v>
+      </c>
+      <c r="E44" s="32"/>
       <c r="F44" s="0"/>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="29" t="s">
-        <v>55</v>
+      <c r="A45" s="28" t="s">
+        <v>56</v>
       </c>
       <c r="B45" s="0"/>
       <c r="C45" s="0"/>
-      <c r="D45" s="32"/>
-      <c r="E45" s="33"/>
+      <c r="D45" s="31" t="n">
+        <v>89</v>
+      </c>
+      <c r="E45" s="32"/>
       <c r="F45" s="0"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="29" t="s">
-        <v>56</v>
+      <c r="A46" s="28" t="s">
+        <v>57</v>
       </c>
       <c r="B46" s="0"/>
       <c r="C46" s="0"/>
-      <c r="D46" s="32" t="n">
-        <v>-10</v>
-      </c>
-      <c r="E46" s="33"/>
+      <c r="D46" s="33" t="n">
+        <v>1000</v>
+      </c>
+      <c r="E46" s="34"/>
       <c r="F46" s="0"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="29" t="s">
-        <v>57</v>
-      </c>
+      <c r="A47" s="4"/>
       <c r="B47" s="0"/>
       <c r="C47" s="0"/>
-      <c r="D47" s="32" t="n">
-        <v>10</v>
-      </c>
-      <c r="E47" s="33"/>
-      <c r="F47" s="0"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
     </row>
     <row r="48" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="29" t="s">
+      <c r="A48" s="4" t="s">
         <v>58</v>
       </c>
       <c r="B48" s="0"/>
       <c r="C48" s="0"/>
-      <c r="D48" s="32" t="n">
-        <v>89</v>
-      </c>
-      <c r="E48" s="33"/>
-      <c r="F48" s="0"/>
+      <c r="D48" s="5"/>
+      <c r="E48" s="15"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="29" t="s">
-        <v>59</v>
-      </c>
+      <c r="A49" s="4"/>
       <c r="B49" s="0"/>
       <c r="C49" s="0"/>
-      <c r="D49" s="34" t="n">
-        <v>1000</v>
-      </c>
-      <c r="E49" s="35"/>
-      <c r="F49" s="0"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="5"/>
     </row>
     <row r="50" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="4"/>
-      <c r="B50" s="0"/>
-      <c r="C50" s="0"/>
-      <c r="D50" s="5"/>
-      <c r="E50" s="5"/>
+      <c r="A50" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B50" s="18"/>
+      <c r="C50" s="7"/>
+      <c r="E50" s="0" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="51" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B51" s="0"/>
       <c r="C51" s="0"/>
       <c r="D51" s="5"/>
-      <c r="E51" s="15"/>
+      <c r="E51" s="5" t="n">
+        <v>20</v>
+      </c>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="4"/>
+      <c r="A52" s="4" t="s">
+        <v>62</v>
+      </c>
       <c r="B52" s="0"/>
       <c r="C52" s="0"/>
       <c r="D52" s="5"/>
-      <c r="E52" s="5"/>
+      <c r="E52" s="5" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="17" t="s">
-        <v>61</v>
-      </c>
-      <c r="B53" s="18"/>
-      <c r="C53" s="7"/>
-      <c r="E53" s="0" t="s">
-        <v>62</v>
-      </c>
+      <c r="A53" s="35"/>
+      <c r="B53" s="36"/>
+      <c r="C53" s="36"/>
     </row>
     <row r="54" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A54" s="4" t="s">
@@ -1782,10 +1744,6 @@
       </c>
       <c r="B54" s="0"/>
       <c r="C54" s="0"/>
-      <c r="D54" s="5"/>
-      <c r="E54" s="5" t="n">
-        <v>20</v>
-      </c>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A55" s="4" t="s">
@@ -1793,34 +1751,30 @@
       </c>
       <c r="B55" s="0"/>
       <c r="C55" s="0"/>
-      <c r="D55" s="5"/>
-      <c r="E55" s="5" t="n">
-        <v>1</v>
-      </c>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="36"/>
-      <c r="B56" s="37"/>
-      <c r="C56" s="37"/>
+      <c r="A56" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" s="0"/>
+      <c r="C56" s="0"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="4" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="B57" s="0"/>
       <c r="C57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A58" s="4" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B58" s="0"/>
       <c r="C58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A59" s="4" t="s">
-        <v>67</v>
-      </c>
+      <c r="A59" s="4"/>
       <c r="B59" s="0"/>
       <c r="C59" s="0"/>
     </row>
@@ -1830,39 +1784,20 @@
       </c>
       <c r="B60" s="0"/>
       <c r="C60" s="0"/>
+      <c r="E60" s="37"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="B61" s="0"/>
       <c r="C61" s="0"/>
     </row>
     <row r="62" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A62" s="4"/>
-      <c r="B62" s="0"/>
-      <c r="C62" s="0"/>
-    </row>
-    <row r="63" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A63" s="4" t="s">
+      <c r="A62" s="28" t="s">
+        <v>69</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="B63" s="0"/>
-      <c r="C63" s="0"/>
-      <c r="E63" s="38"/>
-    </row>
-    <row r="64" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B64" s="0"/>
-      <c r="C64" s="0"/>
-    </row>
-    <row r="65" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="29" t="s">
-        <v>71</v>
-      </c>
-      <c r="B65" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="C65" s="5"/>
+      <c r="C62" s="5"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
@@ -1892,18 +1827,18 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="39" width="21.1938775510204"/>
-    <col collapsed="false" hidden="false" max="3" min="2" style="39" width="22.6785714285714"/>
-    <col collapsed="false" hidden="false" max="251" min="4" style="39" width="10.2602040816327"/>
-    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.2602040816327"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="38" width="21.4897959183673"/>
+    <col collapsed="false" hidden="false" max="3" min="2" style="38" width="23.0051020408163"/>
+    <col collapsed="false" hidden="false" max="251" min="4" style="38" width="10.3673469387755"/>
+    <col collapsed="false" hidden="false" max="1025" min="252" style="0" width="10.3673469387755"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="0"/>
-      <c r="B1" s="40" t="n">
+      <c r="B1" s="39" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="40" t="n">
+      <c r="C1" s="39" t="n">
         <v>1</v>
       </c>
       <c r="D1" s="0"/>
@@ -2157,7 +2092,7 @@
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B2" s="4" t="n">
         <v>1</v>
@@ -2415,13 +2350,13 @@
       <c r="IQ2" s="0"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="B3" s="41" t="n">
+      <c r="A3" s="28" t="s">
+        <v>72</v>
+      </c>
+      <c r="B3" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C3" s="41" t="n">
+      <c r="C3" s="40" t="n">
         <v>3.1436</v>
       </c>
       <c r="D3" s="0"/>
@@ -2674,13 +2609,13 @@
       <c r="IQ3" s="0"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="41" t="n">
+      <c r="A4" s="28" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="40" t="n">
         <v>0</v>
       </c>
-      <c r="C4" s="41" t="n">
+      <c r="C4" s="40" t="n">
         <v>0</v>
       </c>
       <c r="D4" s="0"/>
@@ -2933,8 +2868,8 @@
       <c r="IQ4" s="0"/>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="29" t="s">
-        <v>76</v>
+      <c r="A5" s="28" t="s">
+        <v>74</v>
       </c>
       <c r="B5" s="4" t="n">
         <v>512</v>
@@ -3192,13 +3127,13 @@
       <c r="IQ5" s="0"/>
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42" t="s">
-        <v>77</v>
-      </c>
-      <c r="B6" s="41" t="n">
+      <c r="A6" s="41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6" s="40" t="n">
         <v>90</v>
       </c>
-      <c r="C6" s="41" t="n">
+      <c r="C6" s="40" t="n">
         <v>88.0172525718237</v>
       </c>
       <c r="D6" s="0"/>
@@ -3451,13 +3386,13 @@
       <c r="IQ6" s="0"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="43" t="s">
-        <v>78</v>
-      </c>
-      <c r="B7" s="41" t="n">
+      <c r="A7" s="42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B7" s="40" t="n">
         <v>9</v>
       </c>
-      <c r="C7" s="41" t="n">
+      <c r="C7" s="40" t="n">
         <v>9</v>
       </c>
       <c r="D7" s="0"/>
@@ -3710,8 +3645,8 @@
       <c r="IQ7" s="0"/>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="29" t="s">
-        <v>79</v>
+      <c r="A8" s="28" t="s">
+        <v>77</v>
       </c>
       <c r="B8" s="4" t="n">
         <v>1500</v>
@@ -3970,7 +3905,7 @@
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B9" s="0" t="n">
         <v>250</v>
@@ -4229,10 +4164,10 @@
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="B10" s="44"/>
-      <c r="C10" s="44"/>
+        <v>79</v>
+      </c>
+      <c r="B10" s="43"/>
+      <c r="C10" s="43"/>
       <c r="D10" s="0"/>
       <c r="E10" s="0"/>
       <c r="F10" s="0"/>
@@ -4483,8 +4418,8 @@
       <c r="IQ10" s="0"/>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="36" t="s">
-        <v>82</v>
+      <c r="A11" s="35" t="s">
+        <v>80</v>
       </c>
       <c r="B11" s="0"/>
       <c r="C11" s="0"/>
@@ -4739,9 +4674,9 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="B12" s="45"/>
+        <v>81</v>
+      </c>
+      <c r="B12" s="44"/>
       <c r="C12" s="0"/>
       <c r="D12" s="0"/>
       <c r="E12" s="0"/>
@@ -4994,7 +4929,7 @@
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="4" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.02</v>
@@ -5252,13 +5187,13 @@
       <c r="IQ13" s="0"/>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="46" t="s">
-        <v>85</v>
-      </c>
-      <c r="B14" s="47" t="n">
+      <c r="A14" s="45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B14" s="46" t="n">
         <v>-1</v>
       </c>
-      <c r="C14" s="47" t="n">
+      <c r="C14" s="46" t="n">
         <v>2</v>
       </c>
       <c r="D14" s="0"/>
@@ -5511,11 +5446,11 @@
       <c r="IQ14" s="0"/>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="48" t="s">
-        <v>86</v>
+      <c r="A15" s="47" t="s">
+        <v>84</v>
       </c>
       <c r="B15" s="0"/>
-      <c r="C15" s="49"/>
+      <c r="C15" s="48"/>
       <c r="D15" s="0"/>
       <c r="E15" s="0"/>
       <c r="F15" s="0"/>
@@ -5766,11 +5701,11 @@
       <c r="IQ15" s="0"/>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="48" t="s">
-        <v>87</v>
+      <c r="A16" s="47" t="s">
+        <v>85</v>
       </c>
       <c r="B16" s="0"/>
-      <c r="C16" s="49"/>
+      <c r="C16" s="48"/>
       <c r="D16" s="0"/>
       <c r="E16" s="0"/>
       <c r="F16" s="0"/>
@@ -6021,11 +5956,11 @@
       <c r="IQ16" s="0"/>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="50" t="s">
-        <v>88</v>
-      </c>
-      <c r="B17" s="51"/>
-      <c r="C17" s="52"/>
+      <c r="A17" s="49" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" s="50"/>
+      <c r="C17" s="51"/>
       <c r="D17" s="0"/>
       <c r="E17" s="0"/>
       <c r="F17" s="0"/>
@@ -6277,7 +6212,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="4" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B18" s="0"/>
       <c r="C18" s="0"/>
@@ -6533,7 +6468,7 @@
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0"/>
       <c r="B19" s="0"/>
-      <c r="C19" s="53"/>
+      <c r="C19" s="52"/>
       <c r="D19" s="0"/>
       <c r="E19" s="0"/>
       <c r="F19" s="0"/>
@@ -6785,10 +6720,10 @@
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="B20" s="45"/>
-      <c r="C20" s="53"/>
+        <v>88</v>
+      </c>
+      <c r="B20" s="44"/>
+      <c r="C20" s="52"/>
       <c r="D20" s="0"/>
       <c r="E20" s="0"/>
       <c r="F20" s="0"/>
@@ -7040,10 +6975,10 @@
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="B21" s="45"/>
-      <c r="C21" s="53"/>
+        <v>89</v>
+      </c>
+      <c r="B21" s="44"/>
+      <c r="C21" s="52"/>
       <c r="D21" s="0"/>
       <c r="E21" s="0"/>
       <c r="F21" s="0"/>
@@ -7295,7 +7230,7 @@
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="4" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B22" s="0"/>
       <c r="C22" s="0"/>
@@ -7550,7 +7485,7 @@
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B23" s="0"/>
       <c r="C23" s="0"/>
@@ -7805,7 +7740,7 @@
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B24" s="0" t="n">
         <f aca="false">B9*0.9</f>
@@ -8319,7 +8254,7 @@
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="4" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B26" s="5" t="n">
         <v>15</v>
@@ -8578,7 +8513,7 @@
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="4" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B27" s="5" t="n">
         <v>2</v>
@@ -8842,7 +8777,7 @@
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="4" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B29" s="0" t="n">
         <v>512</v>
@@ -8853,7 +8788,7 @@
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B30" s="0" t="n">
         <v>512</v>
@@ -8864,7 +8799,7 @@
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B31" s="0" t="n">
         <v>1</v>
@@ -8875,7 +8810,7 @@
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="4" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B32" s="0" t="n">
         <v>1</v>
@@ -8886,7 +8821,7 @@
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B33" s="0"/>
       <c r="C33" s="0"/>
@@ -8898,23 +8833,23 @@
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="B35" s="54" t="n">
+        <v>100</v>
+      </c>
+      <c r="B35" s="53" t="n">
         <v>65.1186367</v>
       </c>
-      <c r="C35" s="54" t="n">
+      <c r="C35" s="53" t="n">
         <v>65.12657</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="B36" s="54" t="n">
+        <v>101</v>
+      </c>
+      <c r="B36" s="53" t="n">
         <v>-147.432975</v>
       </c>
-      <c r="C36" s="54" t="n">
+      <c r="C36" s="53" t="n">
         <v>-147.496908333</v>
       </c>
     </row>
@@ -8925,7 +8860,7 @@
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="4" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B38" s="4" t="n">
         <v>77.51</v>
@@ -8936,7 +8871,7 @@
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="4" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B39" s="4" t="n">
         <v>19.92</v>
@@ -8947,24 +8882,24 @@
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="4" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C40" s="4" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="C41" s="4" t="s">
         <v>108</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8973,37 +8908,37 @@
       <c r="C42" s="0"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="39" t="s">
-        <v>111</v>
-      </c>
-      <c r="B43" s="55" t="n">
+      <c r="A43" s="38" t="s">
+        <v>109</v>
+      </c>
+      <c r="B43" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
-      <c r="C43" s="55" t="n">
+      <c r="C43" s="54" t="n">
         <f aca="false">(0.0016)^2</f>
         <v>2.56E-006</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="39" t="s">
-        <v>112</v>
-      </c>
-      <c r="B44" s="39" t="n">
+      <c r="A44" s="38" t="s">
+        <v>110</v>
+      </c>
+      <c r="B44" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="C44" s="39" t="n">
+      <c r="C44" s="38" t="n">
         <v>1</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="39" t="s">
-        <v>113</v>
-      </c>
-      <c r="B45" s="39" t="n">
+      <c r="A45" s="38" t="s">
+        <v>111</v>
+      </c>
+      <c r="B45" s="38" t="n">
         <v>1</v>
       </c>
-      <c r="C45" s="39" t="n">
+      <c r="C45" s="38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -9035,508 +8970,508 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="20.7908163265306"/>
-    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.3418367346939"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="21.0612244897959"/>
+    <col collapsed="false" hidden="false" max="1025" min="2" style="0" width="11.4489795918367"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="56"/>
-      <c r="B1" s="57" t="n">
+      <c r="A1" s="55"/>
+      <c r="B1" s="56" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="57" t="n">
+      <c r="C1" s="56" t="n">
         <v>1</v>
       </c>
-      <c r="D1" s="57" t="n">
+      <c r="D1" s="56" t="n">
         <v>2</v>
       </c>
-      <c r="E1" s="57" t="n">
+      <c r="E1" s="56" t="n">
         <v>3</v>
       </c>
-      <c r="F1" s="57" t="n">
+      <c r="F1" s="56" t="n">
         <v>4</v>
       </c>
-      <c r="G1" s="57" t="n">
+      <c r="G1" s="56" t="n">
         <v>5</v>
       </c>
-      <c r="H1" s="57" t="n">
+      <c r="H1" s="56" t="n">
         <v>6</v>
       </c>
-      <c r="I1" s="57" t="n">
+      <c r="I1" s="56" t="n">
         <v>7</v>
       </c>
-      <c r="J1" s="57" t="n">
+      <c r="J1" s="56" t="n">
         <v>8</v>
       </c>
-      <c r="K1" s="57" t="n">
+      <c r="K1" s="56" t="n">
         <v>9</v>
       </c>
-      <c r="L1" s="57" t="n">
+      <c r="L1" s="56" t="n">
         <v>10</v>
       </c>
-      <c r="M1" s="57" t="n">
+      <c r="M1" s="56" t="n">
         <v>11</v>
       </c>
-      <c r="N1" s="57" t="n">
+      <c r="N1" s="56" t="n">
         <v>12</v>
       </c>
-      <c r="O1" s="57" t="n">
+      <c r="O1" s="56" t="n">
         <v>13</v>
       </c>
-      <c r="P1" s="57" t="n">
+      <c r="P1" s="56" t="n">
         <v>14</v>
       </c>
-      <c r="Q1" s="57" t="n">
+      <c r="Q1" s="56" t="n">
         <v>15</v>
       </c>
-      <c r="R1" s="57" t="n">
+      <c r="R1" s="56" t="n">
         <v>16</v>
       </c>
-      <c r="S1" s="57" t="n">
+      <c r="S1" s="56" t="n">
         <v>17</v>
       </c>
-      <c r="T1" s="57" t="n">
+      <c r="T1" s="56" t="n">
         <v>18</v>
       </c>
-      <c r="U1" s="57" t="n">
+      <c r="U1" s="56" t="n">
         <v>19</v>
       </c>
-      <c r="V1" s="57" t="n">
+      <c r="V1" s="56" t="n">
         <v>20</v>
       </c>
-      <c r="W1" s="57" t="n">
+      <c r="W1" s="56" t="n">
         <v>21</v>
       </c>
-      <c r="X1" s="57" t="n">
+      <c r="X1" s="56" t="n">
         <v>22</v>
       </c>
-      <c r="Y1" s="57" t="n">
+      <c r="Y1" s="56" t="n">
         <v>23</v>
       </c>
-      <c r="Z1" s="57" t="n">
+      <c r="Z1" s="56" t="n">
         <v>24</v>
       </c>
-      <c r="AA1" s="57" t="n">
+      <c r="AA1" s="56" t="n">
         <v>25</v>
       </c>
-      <c r="AB1" s="57" t="n">
+      <c r="AB1" s="56" t="n">
         <v>26</v>
       </c>
-      <c r="AC1" s="57" t="n">
+      <c r="AC1" s="56" t="n">
         <v>27</v>
       </c>
-      <c r="AD1" s="57" t="n">
+      <c r="AD1" s="56" t="n">
         <v>28</v>
       </c>
-      <c r="AE1" s="57" t="n">
+      <c r="AE1" s="56" t="n">
         <v>29</v>
       </c>
-      <c r="AF1" s="57" t="n">
+      <c r="AF1" s="56" t="n">
         <v>30</v>
       </c>
-      <c r="AG1" s="57" t="n">
+      <c r="AG1" s="56" t="n">
         <v>31</v>
       </c>
-      <c r="AH1" s="57" t="n">
+      <c r="AH1" s="56" t="n">
         <v>32</v>
       </c>
-      <c r="AI1" s="57" t="n">
+      <c r="AI1" s="56" t="n">
         <v>33</v>
       </c>
-      <c r="AJ1" s="57" t="n">
+      <c r="AJ1" s="56" t="n">
         <v>34</v>
       </c>
-      <c r="AK1" s="57" t="n">
+      <c r="AK1" s="56" t="n">
         <v>35</v>
       </c>
-      <c r="AL1" s="57" t="n">
+      <c r="AL1" s="56" t="n">
         <v>36</v>
       </c>
-      <c r="AM1" s="57" t="n">
+      <c r="AM1" s="56" t="n">
         <v>37</v>
       </c>
-      <c r="AN1" s="57" t="n">
+      <c r="AN1" s="56" t="n">
         <v>38</v>
       </c>
-      <c r="AO1" s="57" t="n">
+      <c r="AO1" s="56" t="n">
         <v>39</v>
       </c>
-      <c r="AP1" s="57" t="n">
+      <c r="AP1" s="56" t="n">
         <v>40</v>
       </c>
-      <c r="AQ1" s="57" t="n">
+      <c r="AQ1" s="56" t="n">
         <v>41</v>
       </c>
-      <c r="AR1" s="56"/>
-      <c r="AS1" s="56"/>
-      <c r="AT1" s="56"/>
-      <c r="AU1" s="56"/>
-      <c r="AV1" s="56"/>
-      <c r="AW1" s="56"/>
-      <c r="AX1" s="56"/>
-      <c r="AY1" s="56"/>
-      <c r="AZ1" s="56"/>
-      <c r="BA1" s="56"/>
-      <c r="BB1" s="56"/>
-      <c r="BC1" s="56"/>
-      <c r="BD1" s="56"/>
-      <c r="BE1" s="56"/>
-      <c r="BF1" s="56"/>
-      <c r="BG1" s="56"/>
-      <c r="BH1" s="56"/>
-      <c r="BI1" s="56"/>
-      <c r="BJ1" s="56"/>
-      <c r="BK1" s="56"/>
-      <c r="BL1" s="56"/>
-      <c r="BM1" s="56"/>
-      <c r="BN1" s="56"/>
-      <c r="BO1" s="56"/>
-      <c r="BP1" s="56"/>
-      <c r="BQ1" s="56"/>
-      <c r="BR1" s="56"/>
-      <c r="BS1" s="56"/>
-      <c r="BT1" s="56"/>
-      <c r="BU1" s="56"/>
-      <c r="BV1" s="56"/>
-      <c r="BW1" s="56"/>
-      <c r="BX1" s="56"/>
-      <c r="BY1" s="56"/>
-      <c r="BZ1" s="56"/>
-      <c r="CA1" s="56"/>
-      <c r="CB1" s="56"/>
-      <c r="CC1" s="56"/>
-      <c r="CD1" s="56"/>
-      <c r="CE1" s="56"/>
-      <c r="CF1" s="56"/>
-      <c r="CG1" s="56"/>
-      <c r="CH1" s="56"/>
-      <c r="CI1" s="56"/>
-      <c r="CJ1" s="56"/>
-      <c r="CK1" s="56"/>
-      <c r="CL1" s="56"/>
-      <c r="CM1" s="56"/>
-      <c r="CN1" s="56"/>
-      <c r="CO1" s="56"/>
-      <c r="CP1" s="56"/>
-      <c r="CQ1" s="56"/>
-      <c r="CR1" s="56"/>
-      <c r="CS1" s="56"/>
-      <c r="CT1" s="56"/>
-      <c r="CU1" s="56"/>
-      <c r="CV1" s="56"/>
-      <c r="CW1" s="56"/>
-      <c r="CX1" s="56"/>
-      <c r="CY1" s="56"/>
-      <c r="CZ1" s="56"/>
-      <c r="DA1" s="56"/>
-      <c r="DB1" s="56"/>
-      <c r="DC1" s="56"/>
-      <c r="DD1" s="56"/>
-      <c r="DE1" s="56"/>
-      <c r="DF1" s="56"/>
-      <c r="DG1" s="56"/>
-      <c r="DH1" s="56"/>
-      <c r="DI1" s="56"/>
-      <c r="DJ1" s="56"/>
-      <c r="DK1" s="56"/>
-      <c r="DL1" s="56"/>
-      <c r="DM1" s="56"/>
-      <c r="DN1" s="56"/>
-      <c r="DO1" s="56"/>
-      <c r="DP1" s="56"/>
-      <c r="DQ1" s="56"/>
-      <c r="DR1" s="56"/>
-      <c r="DS1" s="56"/>
-      <c r="DT1" s="56"/>
-      <c r="DU1" s="56"/>
-      <c r="DV1" s="56"/>
-      <c r="DW1" s="56"/>
-      <c r="DX1" s="56"/>
-      <c r="DY1" s="56"/>
-      <c r="DZ1" s="56"/>
-      <c r="EA1" s="56"/>
-      <c r="EB1" s="56"/>
-      <c r="EC1" s="56"/>
-      <c r="ED1" s="56"/>
-      <c r="EE1" s="56"/>
-      <c r="EF1" s="56"/>
-      <c r="EG1" s="56"/>
-      <c r="EH1" s="56"/>
-      <c r="EI1" s="56"/>
-      <c r="EJ1" s="56"/>
-      <c r="EK1" s="56"/>
-      <c r="EL1" s="56"/>
-      <c r="EM1" s="56"/>
-      <c r="EN1" s="56"/>
-      <c r="EO1" s="56"/>
-      <c r="EP1" s="56"/>
-      <c r="EQ1" s="56"/>
-      <c r="ER1" s="56"/>
-      <c r="ES1" s="56"/>
-      <c r="ET1" s="56"/>
-      <c r="EU1" s="56"/>
-      <c r="EV1" s="56"/>
-      <c r="EW1" s="56"/>
-      <c r="EX1" s="56"/>
-      <c r="EY1" s="56"/>
-      <c r="EZ1" s="56"/>
-      <c r="FA1" s="56"/>
-      <c r="FB1" s="56"/>
-      <c r="FC1" s="56"/>
-      <c r="FD1" s="56"/>
-      <c r="FE1" s="56"/>
-      <c r="FF1" s="56"/>
-      <c r="FG1" s="56"/>
-      <c r="FH1" s="56"/>
-      <c r="FI1" s="56"/>
-      <c r="FJ1" s="56"/>
-      <c r="FK1" s="56"/>
-      <c r="FL1" s="56"/>
-      <c r="FM1" s="56"/>
-      <c r="FN1" s="56"/>
-      <c r="FO1" s="56"/>
-      <c r="FP1" s="56"/>
-      <c r="FQ1" s="56"/>
-      <c r="FR1" s="56"/>
-      <c r="FS1" s="56"/>
-      <c r="FT1" s="56"/>
-      <c r="FU1" s="56"/>
-      <c r="FV1" s="56"/>
-      <c r="FW1" s="56"/>
-      <c r="FX1" s="56"/>
-      <c r="FY1" s="56"/>
-      <c r="FZ1" s="56"/>
-      <c r="GA1" s="56"/>
-      <c r="GB1" s="56"/>
-      <c r="GC1" s="56"/>
-      <c r="GD1" s="56"/>
-      <c r="GE1" s="56"/>
-      <c r="GF1" s="56"/>
-      <c r="GG1" s="56"/>
-      <c r="GH1" s="56"/>
-      <c r="GI1" s="56"/>
-      <c r="GJ1" s="56"/>
-      <c r="GK1" s="56"/>
-      <c r="GL1" s="56"/>
-      <c r="GM1" s="56"/>
-      <c r="GN1" s="56"/>
-      <c r="GO1" s="56"/>
-      <c r="GP1" s="56"/>
-      <c r="GQ1" s="56"/>
-      <c r="GR1" s="56"/>
-      <c r="GS1" s="56"/>
-      <c r="GT1" s="56"/>
-      <c r="GU1" s="56"/>
-      <c r="GV1" s="56"/>
-      <c r="GW1" s="56"/>
-      <c r="GX1" s="56"/>
-      <c r="GY1" s="56"/>
-      <c r="GZ1" s="56"/>
-      <c r="HA1" s="56"/>
-      <c r="HB1" s="56"/>
-      <c r="HC1" s="56"/>
-      <c r="HD1" s="56"/>
-      <c r="HE1" s="56"/>
-      <c r="HF1" s="56"/>
-      <c r="HG1" s="56"/>
-      <c r="HH1" s="56"/>
-      <c r="HI1" s="56"/>
-      <c r="HJ1" s="56"/>
-      <c r="HK1" s="56"/>
-      <c r="HL1" s="56"/>
-      <c r="HM1" s="56"/>
-      <c r="HN1" s="56"/>
-      <c r="HO1" s="56"/>
-      <c r="HP1" s="56"/>
-      <c r="HQ1" s="56"/>
-      <c r="HR1" s="56"/>
-      <c r="HS1" s="56"/>
-      <c r="HT1" s="56"/>
-      <c r="HU1" s="56"/>
-      <c r="HV1" s="56"/>
-      <c r="HW1" s="56"/>
-      <c r="HX1" s="56"/>
-      <c r="HY1" s="56"/>
-      <c r="HZ1" s="56"/>
-      <c r="IA1" s="56"/>
-      <c r="IB1" s="56"/>
-      <c r="IC1" s="56"/>
-      <c r="ID1" s="56"/>
-      <c r="IE1" s="56"/>
-      <c r="IF1" s="56"/>
-      <c r="IG1" s="56"/>
-      <c r="IH1" s="56"/>
-      <c r="II1" s="56"/>
-      <c r="IJ1" s="56"/>
-      <c r="IK1" s="56"/>
-      <c r="IL1" s="56"/>
-      <c r="IM1" s="56"/>
-      <c r="IN1" s="56"/>
-      <c r="IO1" s="56"/>
-      <c r="IP1" s="56"/>
-      <c r="IQ1" s="56"/>
-      <c r="IR1" s="56"/>
-      <c r="IS1" s="56"/>
-      <c r="IT1" s="56"/>
-      <c r="IU1" s="56"/>
-      <c r="IV1" s="56"/>
-      <c r="IW1" s="56"/>
-      <c r="IX1" s="56"/>
-      <c r="IY1" s="56"/>
-      <c r="IZ1" s="56"/>
-      <c r="JA1" s="56"/>
-      <c r="JB1" s="56"/>
-      <c r="JC1" s="56"/>
-      <c r="JD1" s="56"/>
-      <c r="JE1" s="56"/>
-      <c r="JF1" s="56"/>
-      <c r="JG1" s="56"/>
-      <c r="JH1" s="56"/>
-      <c r="JI1" s="56"/>
-      <c r="JJ1" s="56"/>
-      <c r="JK1" s="56"/>
-      <c r="JL1" s="56"/>
-      <c r="JM1" s="56"/>
-      <c r="JN1" s="56"/>
-      <c r="JO1" s="56"/>
-      <c r="JP1" s="56"/>
-      <c r="JQ1" s="56"/>
-      <c r="JR1" s="56"/>
+      <c r="AR1" s="55"/>
+      <c r="AS1" s="55"/>
+      <c r="AT1" s="55"/>
+      <c r="AU1" s="55"/>
+      <c r="AV1" s="55"/>
+      <c r="AW1" s="55"/>
+      <c r="AX1" s="55"/>
+      <c r="AY1" s="55"/>
+      <c r="AZ1" s="55"/>
+      <c r="BA1" s="55"/>
+      <c r="BB1" s="55"/>
+      <c r="BC1" s="55"/>
+      <c r="BD1" s="55"/>
+      <c r="BE1" s="55"/>
+      <c r="BF1" s="55"/>
+      <c r="BG1" s="55"/>
+      <c r="BH1" s="55"/>
+      <c r="BI1" s="55"/>
+      <c r="BJ1" s="55"/>
+      <c r="BK1" s="55"/>
+      <c r="BL1" s="55"/>
+      <c r="BM1" s="55"/>
+      <c r="BN1" s="55"/>
+      <c r="BO1" s="55"/>
+      <c r="BP1" s="55"/>
+      <c r="BQ1" s="55"/>
+      <c r="BR1" s="55"/>
+      <c r="BS1" s="55"/>
+      <c r="BT1" s="55"/>
+      <c r="BU1" s="55"/>
+      <c r="BV1" s="55"/>
+      <c r="BW1" s="55"/>
+      <c r="BX1" s="55"/>
+      <c r="BY1" s="55"/>
+      <c r="BZ1" s="55"/>
+      <c r="CA1" s="55"/>
+      <c r="CB1" s="55"/>
+      <c r="CC1" s="55"/>
+      <c r="CD1" s="55"/>
+      <c r="CE1" s="55"/>
+      <c r="CF1" s="55"/>
+      <c r="CG1" s="55"/>
+      <c r="CH1" s="55"/>
+      <c r="CI1" s="55"/>
+      <c r="CJ1" s="55"/>
+      <c r="CK1" s="55"/>
+      <c r="CL1" s="55"/>
+      <c r="CM1" s="55"/>
+      <c r="CN1" s="55"/>
+      <c r="CO1" s="55"/>
+      <c r="CP1" s="55"/>
+      <c r="CQ1" s="55"/>
+      <c r="CR1" s="55"/>
+      <c r="CS1" s="55"/>
+      <c r="CT1" s="55"/>
+      <c r="CU1" s="55"/>
+      <c r="CV1" s="55"/>
+      <c r="CW1" s="55"/>
+      <c r="CX1" s="55"/>
+      <c r="CY1" s="55"/>
+      <c r="CZ1" s="55"/>
+      <c r="DA1" s="55"/>
+      <c r="DB1" s="55"/>
+      <c r="DC1" s="55"/>
+      <c r="DD1" s="55"/>
+      <c r="DE1" s="55"/>
+      <c r="DF1" s="55"/>
+      <c r="DG1" s="55"/>
+      <c r="DH1" s="55"/>
+      <c r="DI1" s="55"/>
+      <c r="DJ1" s="55"/>
+      <c r="DK1" s="55"/>
+      <c r="DL1" s="55"/>
+      <c r="DM1" s="55"/>
+      <c r="DN1" s="55"/>
+      <c r="DO1" s="55"/>
+      <c r="DP1" s="55"/>
+      <c r="DQ1" s="55"/>
+      <c r="DR1" s="55"/>
+      <c r="DS1" s="55"/>
+      <c r="DT1" s="55"/>
+      <c r="DU1" s="55"/>
+      <c r="DV1" s="55"/>
+      <c r="DW1" s="55"/>
+      <c r="DX1" s="55"/>
+      <c r="DY1" s="55"/>
+      <c r="DZ1" s="55"/>
+      <c r="EA1" s="55"/>
+      <c r="EB1" s="55"/>
+      <c r="EC1" s="55"/>
+      <c r="ED1" s="55"/>
+      <c r="EE1" s="55"/>
+      <c r="EF1" s="55"/>
+      <c r="EG1" s="55"/>
+      <c r="EH1" s="55"/>
+      <c r="EI1" s="55"/>
+      <c r="EJ1" s="55"/>
+      <c r="EK1" s="55"/>
+      <c r="EL1" s="55"/>
+      <c r="EM1" s="55"/>
+      <c r="EN1" s="55"/>
+      <c r="EO1" s="55"/>
+      <c r="EP1" s="55"/>
+      <c r="EQ1" s="55"/>
+      <c r="ER1" s="55"/>
+      <c r="ES1" s="55"/>
+      <c r="ET1" s="55"/>
+      <c r="EU1" s="55"/>
+      <c r="EV1" s="55"/>
+      <c r="EW1" s="55"/>
+      <c r="EX1" s="55"/>
+      <c r="EY1" s="55"/>
+      <c r="EZ1" s="55"/>
+      <c r="FA1" s="55"/>
+      <c r="FB1" s="55"/>
+      <c r="FC1" s="55"/>
+      <c r="FD1" s="55"/>
+      <c r="FE1" s="55"/>
+      <c r="FF1" s="55"/>
+      <c r="FG1" s="55"/>
+      <c r="FH1" s="55"/>
+      <c r="FI1" s="55"/>
+      <c r="FJ1" s="55"/>
+      <c r="FK1" s="55"/>
+      <c r="FL1" s="55"/>
+      <c r="FM1" s="55"/>
+      <c r="FN1" s="55"/>
+      <c r="FO1" s="55"/>
+      <c r="FP1" s="55"/>
+      <c r="FQ1" s="55"/>
+      <c r="FR1" s="55"/>
+      <c r="FS1" s="55"/>
+      <c r="FT1" s="55"/>
+      <c r="FU1" s="55"/>
+      <c r="FV1" s="55"/>
+      <c r="FW1" s="55"/>
+      <c r="FX1" s="55"/>
+      <c r="FY1" s="55"/>
+      <c r="FZ1" s="55"/>
+      <c r="GA1" s="55"/>
+      <c r="GB1" s="55"/>
+      <c r="GC1" s="55"/>
+      <c r="GD1" s="55"/>
+      <c r="GE1" s="55"/>
+      <c r="GF1" s="55"/>
+      <c r="GG1" s="55"/>
+      <c r="GH1" s="55"/>
+      <c r="GI1" s="55"/>
+      <c r="GJ1" s="55"/>
+      <c r="GK1" s="55"/>
+      <c r="GL1" s="55"/>
+      <c r="GM1" s="55"/>
+      <c r="GN1" s="55"/>
+      <c r="GO1" s="55"/>
+      <c r="GP1" s="55"/>
+      <c r="GQ1" s="55"/>
+      <c r="GR1" s="55"/>
+      <c r="GS1" s="55"/>
+      <c r="GT1" s="55"/>
+      <c r="GU1" s="55"/>
+      <c r="GV1" s="55"/>
+      <c r="GW1" s="55"/>
+      <c r="GX1" s="55"/>
+      <c r="GY1" s="55"/>
+      <c r="GZ1" s="55"/>
+      <c r="HA1" s="55"/>
+      <c r="HB1" s="55"/>
+      <c r="HC1" s="55"/>
+      <c r="HD1" s="55"/>
+      <c r="HE1" s="55"/>
+      <c r="HF1" s="55"/>
+      <c r="HG1" s="55"/>
+      <c r="HH1" s="55"/>
+      <c r="HI1" s="55"/>
+      <c r="HJ1" s="55"/>
+      <c r="HK1" s="55"/>
+      <c r="HL1" s="55"/>
+      <c r="HM1" s="55"/>
+      <c r="HN1" s="55"/>
+      <c r="HO1" s="55"/>
+      <c r="HP1" s="55"/>
+      <c r="HQ1" s="55"/>
+      <c r="HR1" s="55"/>
+      <c r="HS1" s="55"/>
+      <c r="HT1" s="55"/>
+      <c r="HU1" s="55"/>
+      <c r="HV1" s="55"/>
+      <c r="HW1" s="55"/>
+      <c r="HX1" s="55"/>
+      <c r="HY1" s="55"/>
+      <c r="HZ1" s="55"/>
+      <c r="IA1" s="55"/>
+      <c r="IB1" s="55"/>
+      <c r="IC1" s="55"/>
+      <c r="ID1" s="55"/>
+      <c r="IE1" s="55"/>
+      <c r="IF1" s="55"/>
+      <c r="IG1" s="55"/>
+      <c r="IH1" s="55"/>
+      <c r="II1" s="55"/>
+      <c r="IJ1" s="55"/>
+      <c r="IK1" s="55"/>
+      <c r="IL1" s="55"/>
+      <c r="IM1" s="55"/>
+      <c r="IN1" s="55"/>
+      <c r="IO1" s="55"/>
+      <c r="IP1" s="55"/>
+      <c r="IQ1" s="55"/>
+      <c r="IR1" s="55"/>
+      <c r="IS1" s="55"/>
+      <c r="IT1" s="55"/>
+      <c r="IU1" s="55"/>
+      <c r="IV1" s="55"/>
+      <c r="IW1" s="55"/>
+      <c r="IX1" s="55"/>
+      <c r="IY1" s="55"/>
+      <c r="IZ1" s="55"/>
+      <c r="JA1" s="55"/>
+      <c r="JB1" s="55"/>
+      <c r="JC1" s="55"/>
+      <c r="JD1" s="55"/>
+      <c r="JE1" s="55"/>
+      <c r="JF1" s="55"/>
+      <c r="JG1" s="55"/>
+      <c r="JH1" s="55"/>
+      <c r="JI1" s="55"/>
+      <c r="JJ1" s="55"/>
+      <c r="JK1" s="55"/>
+      <c r="JL1" s="55"/>
+      <c r="JM1" s="55"/>
+      <c r="JN1" s="55"/>
+      <c r="JO1" s="55"/>
+      <c r="JP1" s="55"/>
+      <c r="JQ1" s="55"/>
+      <c r="JR1" s="55"/>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="B2" s="58" t="n">
+        <v>112</v>
+      </c>
+      <c r="B2" s="57" t="n">
         <v>0</v>
       </c>
-      <c r="C2" s="58" t="n">
+      <c r="C2" s="57" t="n">
         <v>0.02</v>
       </c>
-      <c r="D2" s="58" t="n">
+      <c r="D2" s="57" t="n">
         <v>0.04</v>
       </c>
-      <c r="E2" s="58" t="n">
+      <c r="E2" s="57" t="n">
         <v>0.06</v>
       </c>
-      <c r="F2" s="58" t="n">
+      <c r="F2" s="57" t="n">
         <v>0.08</v>
       </c>
-      <c r="G2" s="58" t="n">
+      <c r="G2" s="57" t="n">
         <v>0.1</v>
       </c>
-      <c r="H2" s="58" t="n">
+      <c r="H2" s="57" t="n">
         <v>0.12</v>
       </c>
-      <c r="I2" s="58" t="n">
+      <c r="I2" s="57" t="n">
         <v>0.14</v>
       </c>
-      <c r="J2" s="58" t="n">
+      <c r="J2" s="57" t="n">
         <v>0.16</v>
       </c>
-      <c r="K2" s="58" t="n">
+      <c r="K2" s="57" t="n">
         <v>0.18</v>
       </c>
-      <c r="L2" s="58" t="n">
+      <c r="L2" s="57" t="n">
         <v>0.2</v>
       </c>
-      <c r="M2" s="58" t="n">
+      <c r="M2" s="57" t="n">
         <v>0.22</v>
       </c>
-      <c r="N2" s="58" t="n">
+      <c r="N2" s="57" t="n">
         <v>0.24</v>
       </c>
-      <c r="O2" s="58" t="n">
+      <c r="O2" s="57" t="n">
         <v>0.26</v>
       </c>
-      <c r="P2" s="58" t="n">
+      <c r="P2" s="57" t="n">
         <v>0.28</v>
       </c>
-      <c r="Q2" s="58" t="n">
+      <c r="Q2" s="57" t="n">
         <v>0.3</v>
       </c>
-      <c r="R2" s="58" t="n">
+      <c r="R2" s="57" t="n">
         <v>0.32</v>
       </c>
-      <c r="S2" s="58" t="n">
+      <c r="S2" s="57" t="n">
         <v>0.34</v>
       </c>
-      <c r="T2" s="58" t="n">
+      <c r="T2" s="57" t="n">
         <v>0.36</v>
       </c>
-      <c r="U2" s="58" t="n">
+      <c r="U2" s="57" t="n">
         <v>0.38</v>
       </c>
-      <c r="V2" s="58" t="n">
+      <c r="V2" s="57" t="n">
         <v>0.4</v>
       </c>
-      <c r="W2" s="58" t="n">
+      <c r="W2" s="57" t="n">
         <v>0.42</v>
       </c>
-      <c r="X2" s="58" t="n">
+      <c r="X2" s="57" t="n">
         <v>0.44</v>
       </c>
-      <c r="Y2" s="58" t="n">
+      <c r="Y2" s="57" t="n">
         <v>0.46</v>
       </c>
-      <c r="Z2" s="58" t="n">
+      <c r="Z2" s="57" t="n">
         <v>0.48</v>
       </c>
-      <c r="AA2" s="58" t="n">
+      <c r="AA2" s="57" t="n">
         <v>0.5</v>
       </c>
-      <c r="AB2" s="58" t="n">
+      <c r="AB2" s="57" t="n">
         <v>0.52</v>
       </c>
-      <c r="AC2" s="58" t="n">
+      <c r="AC2" s="57" t="n">
         <v>0.54</v>
       </c>
-      <c r="AD2" s="58" t="n">
+      <c r="AD2" s="57" t="n">
         <v>0.56</v>
       </c>
-      <c r="AE2" s="58" t="n">
+      <c r="AE2" s="57" t="n">
         <v>0.58</v>
       </c>
-      <c r="AF2" s="58" t="n">
+      <c r="AF2" s="57" t="n">
         <v>0.6</v>
       </c>
-      <c r="AG2" s="58" t="n">
+      <c r="AG2" s="57" t="n">
         <v>0.62</v>
       </c>
-      <c r="AH2" s="58" t="n">
+      <c r="AH2" s="57" t="n">
         <v>0.64</v>
       </c>
-      <c r="AI2" s="58" t="n">
+      <c r="AI2" s="57" t="n">
         <v>0.66</v>
       </c>
-      <c r="AJ2" s="58" t="n">
+      <c r="AJ2" s="57" t="n">
         <v>0.68</v>
       </c>
-      <c r="AK2" s="58" t="n">
+      <c r="AK2" s="57" t="n">
         <v>0.7</v>
       </c>
-      <c r="AL2" s="58" t="n">
+      <c r="AL2" s="57" t="n">
         <v>0.72</v>
       </c>
-      <c r="AM2" s="58" t="n">
+      <c r="AM2" s="57" t="n">
         <v>0.74</v>
       </c>
-      <c r="AN2" s="58" t="n">
+      <c r="AN2" s="57" t="n">
         <v>0.76</v>
       </c>
-      <c r="AO2" s="58" t="n">
+      <c r="AO2" s="57" t="n">
         <v>0.78</v>
       </c>
-      <c r="AP2" s="58" t="n">
+      <c r="AP2" s="57" t="n">
         <v>0.8</v>
       </c>
-      <c r="AQ2" s="58" t="n">
+      <c r="AQ2" s="57" t="n">
         <v>0.82</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B3" s="0" t="n">
         <v>-10.25</v>
@@ -9667,17 +9602,17 @@
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="4" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B6" s="4" t="n">
         <v>0.1</v>
@@ -9808,7 +9743,7 @@
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B7" s="0" t="n">
         <v>1</v>
@@ -9939,269 +9874,269 @@
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="I8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="J8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="K8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="R8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="S8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="T8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="X8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AA8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AB8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AC8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AD8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AE8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AF8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AG8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AH8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AI8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AJ8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AK8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AL8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AM8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AN8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AO8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AP8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="AQ8" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="4" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AB9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AC9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AD9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AE9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AF9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AG9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AH9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AI9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AJ9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AK9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AL9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AM9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AN9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AO9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AP9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="AQ9" s="4" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="3" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B11" s="0" t="n">
         <v>1000</v>
@@ -10332,138 +10267,138 @@
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="B12" s="44" t="n">
+        <v>123</v>
+      </c>
+      <c r="B12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="C12" s="44" t="n">
+      <c r="C12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="D12" s="44" t="n">
+      <c r="D12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="E12" s="44" t="n">
+      <c r="E12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="F12" s="44" t="n">
+      <c r="F12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="G12" s="44" t="n">
+      <c r="G12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="H12" s="44" t="n">
+      <c r="H12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="I12" s="44" t="n">
+      <c r="I12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="J12" s="44" t="n">
+      <c r="J12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="K12" s="44" t="n">
+      <c r="K12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="L12" s="44" t="n">
+      <c r="L12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="M12" s="44" t="n">
+      <c r="M12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="N12" s="44" t="n">
+      <c r="N12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="O12" s="44" t="n">
+      <c r="O12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="P12" s="44" t="n">
+      <c r="P12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="Q12" s="44" t="n">
+      <c r="Q12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="R12" s="44" t="n">
+      <c r="R12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="S12" s="44" t="n">
+      <c r="S12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="T12" s="44" t="n">
+      <c r="T12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="U12" s="44" t="n">
+      <c r="U12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="V12" s="44" t="n">
+      <c r="V12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="W12" s="44" t="n">
+      <c r="W12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="X12" s="44" t="n">
+      <c r="X12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="Y12" s="44" t="n">
+      <c r="Y12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="Z12" s="44" t="n">
+      <c r="Z12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AA12" s="44" t="n">
+      <c r="AA12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AB12" s="44" t="n">
+      <c r="AB12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AC12" s="44" t="n">
+      <c r="AC12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AD12" s="44" t="n">
+      <c r="AD12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AE12" s="44" t="n">
+      <c r="AE12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AF12" s="44" t="n">
+      <c r="AF12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AG12" s="44" t="n">
+      <c r="AG12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AH12" s="44" t="n">
+      <c r="AH12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AI12" s="44" t="n">
+      <c r="AI12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AJ12" s="44" t="n">
+      <c r="AJ12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AK12" s="44" t="n">
+      <c r="AK12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AL12" s="44" t="n">
+      <c r="AL12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AM12" s="44" t="n">
+      <c r="AM12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AN12" s="44" t="n">
+      <c r="AN12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AO12" s="44" t="n">
+      <c r="AO12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AP12" s="44" t="n">
+      <c r="AP12" s="43" t="n">
         <v>225000000000</v>
       </c>
-      <c r="AQ12" s="44" t="n">
+      <c r="AQ12" s="43" t="n">
         <v>225000000000</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B13" s="0" t="n">
         <v>0.75</v>
@@ -10594,7 +10529,7 @@
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B14" s="0" t="n">
         <v>0.8</v>
@@ -10725,7 +10660,7 @@
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="0" t="n">
         <v>3</v>
@@ -10856,7 +10791,7 @@
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B16" s="0" t="n">
         <v>4</v>
@@ -10987,7 +10922,7 @@
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B17" s="0" t="n">
         <v>3000</v>
@@ -11118,7 +11053,7 @@
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B18" s="0" t="n">
         <v>0.15</v>
